--- a/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/myt_White_Sea_testing_data_set.xlsx
+++ b/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/myt_White_Sea_testing_data_set.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Excluded_samples" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">myt_White_Sea_testing!$A$1:$AH$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">myt_White_Sea_testing!$A$1:$AI$70</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="153">
   <si>
     <t>Site</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Average_Fetch</t>
+  </si>
+  <si>
+    <t>Fetch</t>
   </si>
   <si>
     <t>Site_Exposition</t>
@@ -1636,10 +1639,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH70"/>
+  <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1657,11 +1660,11 @@
     <col min="22" max="22" width="12.8888888888889" style="2"/>
     <col min="23" max="25" width="10" style="1"/>
     <col min="26" max="27" width="10.6666666666667" style="2"/>
-    <col min="28" max="33" width="12.8888888888889" style="2"/>
-    <col min="34" max="34" width="10" style="1"/>
+    <col min="28" max="34" width="12.8888888888889" style="2"/>
+    <col min="35" max="35" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1761,22 +1764,25 @@
       <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2">
         <v>67.156537</v>
@@ -1794,16 +1800,16 @@
         <v>6</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" s="2">
         <v>67.156763</v>
@@ -1815,13 +1821,13 @@
         <v>0.313927302861054</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" s="2">
         <v>67.156763</v>
@@ -1833,13 +1839,13 @@
         <v>0.313927302861054</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z2" s="2">
         <v>67.137283</v>
@@ -1865,22 +1871,25 @@
       <c r="AG2" s="2">
         <v>2.287848443</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>42</v>
+      <c r="AH2" s="2">
+        <v>2.287848443</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2">
         <v>67.11091667</v>
@@ -1898,16 +1907,16 @@
         <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3" s="2">
         <v>67.100373</v>
@@ -1919,10 +1928,10 @@
         <v>2.50152597541747</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S3" s="2">
         <v>12800</v>
@@ -1937,13 +1946,13 @@
         <v>9.91160220683599</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z3" s="2">
         <v>67.137283</v>
@@ -1969,22 +1978,25 @@
       <c r="AG3" s="2">
         <v>4.814339396</v>
       </c>
-      <c r="AH3" s="1" t="s">
-        <v>42</v>
+      <c r="AH3" s="2">
+        <v>4.814339396</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2">
         <v>67.11091667</v>
@@ -2002,16 +2014,16 @@
         <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N4" s="2">
         <v>67.100373</v>
@@ -2023,10 +2035,10 @@
         <v>2.50152597541747</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S4" s="2">
         <v>12800</v>
@@ -2041,13 +2053,13 @@
         <v>9.91160220683599</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="2">
         <v>67.137283</v>
@@ -2073,22 +2085,25 @@
       <c r="AG4" s="2">
         <v>4.814339396</v>
       </c>
-      <c r="AH4" s="1" t="s">
-        <v>42</v>
+      <c r="AH4" s="2">
+        <v>4.814339396</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2">
         <v>67.11091667</v>
@@ -2106,16 +2121,16 @@
         <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N5" s="2">
         <v>67.100373</v>
@@ -2127,10 +2142,10 @@
         <v>2.50152597541747</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S5" s="2">
         <v>12800</v>
@@ -2145,13 +2160,13 @@
         <v>9.91160220683599</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z5" s="2">
         <v>67.137283</v>
@@ -2177,22 +2192,25 @@
       <c r="AG5" s="2">
         <v>4.814339396</v>
       </c>
-      <c r="AH5" s="1" t="s">
-        <v>42</v>
+      <c r="AH5" s="2">
+        <v>4.814339396</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2">
         <v>67.11091667</v>
@@ -2210,16 +2228,16 @@
         <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6" s="2">
         <v>67.100373</v>
@@ -2231,10 +2249,10 @@
         <v>2.50152597541747</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S6" s="2">
         <v>12800</v>
@@ -2249,13 +2267,13 @@
         <v>9.91160220683599</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z6" s="2">
         <v>67.137283</v>
@@ -2281,22 +2299,25 @@
       <c r="AG6" s="2">
         <v>4.814339396</v>
       </c>
-      <c r="AH6" s="1" t="s">
-        <v>42</v>
+      <c r="AH6" s="2">
+        <v>4.814339396</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2">
         <v>67.11091667</v>
@@ -2314,16 +2335,16 @@
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N7" s="2">
         <v>67.100373</v>
@@ -2335,10 +2356,10 @@
         <v>2.50152597541747</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S7" s="2">
         <v>12800</v>
@@ -2353,13 +2374,13 @@
         <v>9.91160220683599</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z7" s="2">
         <v>67.137283</v>
@@ -2385,22 +2406,25 @@
       <c r="AG7" s="2">
         <v>4.814339396</v>
       </c>
-      <c r="AH7" s="1" t="s">
-        <v>42</v>
+      <c r="AH7" s="2">
+        <v>4.814339396</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2">
         <v>67.11091667</v>
@@ -2418,16 +2442,16 @@
         <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N8" s="2">
         <v>67.100373</v>
@@ -2439,10 +2463,10 @@
         <v>2.50152597541747</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S8" s="2">
         <v>12800</v>
@@ -2457,13 +2481,13 @@
         <v>9.91160220683599</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z8" s="2">
         <v>67.137283</v>
@@ -2489,22 +2513,25 @@
       <c r="AG8" s="2">
         <v>4.814339396</v>
       </c>
-      <c r="AH8" s="1" t="s">
-        <v>42</v>
+      <c r="AH8" s="2">
+        <v>4.814339396</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2">
         <v>67.111241</v>
@@ -2522,16 +2549,16 @@
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N9" s="2">
         <v>67.100373</v>
@@ -2543,10 +2570,10 @@
         <v>2.71343103306778</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S9" s="2">
         <v>12800</v>
@@ -2561,13 +2588,13 @@
         <v>9.68938237290291</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z9" s="2">
         <v>67.137283</v>
@@ -2593,22 +2620,25 @@
       <c r="AG9" s="2">
         <v>3.671570631</v>
       </c>
-      <c r="AH9" s="1" t="s">
-        <v>42</v>
+      <c r="AH9" s="2">
+        <v>3.671570631</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2">
         <v>67.14683333</v>
@@ -2626,16 +2656,16 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N10" s="2">
         <v>67.156763</v>
@@ -2647,13 +2677,13 @@
         <v>1.41052367686529</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T10" s="2">
         <v>67.156763</v>
@@ -2665,13 +2695,13 @@
         <v>1.41052367686529</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z10" s="2">
         <v>67.137283</v>
@@ -2697,22 +2727,25 @@
       <c r="AG10" s="2">
         <v>3.946530585</v>
       </c>
-      <c r="AH10" s="1" t="s">
-        <v>42</v>
+      <c r="AH10" s="2">
+        <v>3.946530585</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2">
         <v>67.14683333</v>
@@ -2730,16 +2763,16 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N11" s="2">
         <v>67.156763</v>
@@ -2751,13 +2784,13 @@
         <v>1.41052367686529</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T11" s="2">
         <v>67.156763</v>
@@ -2769,13 +2802,13 @@
         <v>1.41052367686529</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z11" s="2">
         <v>67.137283</v>
@@ -2801,22 +2834,25 @@
       <c r="AG11" s="2">
         <v>3.946530585</v>
       </c>
-      <c r="AH11" s="1" t="s">
-        <v>42</v>
+      <c r="AH11" s="2">
+        <v>3.946530585</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2">
         <v>67.14683333</v>
@@ -2834,16 +2870,16 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N12" s="2">
         <v>67.156763</v>
@@ -2855,13 +2891,13 @@
         <v>1.41052367686529</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T12" s="2">
         <v>67.156763</v>
@@ -2873,13 +2909,13 @@
         <v>1.41052367686529</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z12" s="2">
         <v>67.137283</v>
@@ -2905,22 +2941,25 @@
       <c r="AG12" s="2">
         <v>3.946530585</v>
       </c>
-      <c r="AH12" s="1" t="s">
-        <v>42</v>
+      <c r="AH12" s="2">
+        <v>3.946530585</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2">
         <v>67.14683333</v>
@@ -2938,16 +2977,16 @@
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N13" s="2">
         <v>67.156763</v>
@@ -2959,13 +2998,13 @@
         <v>1.41052367686529</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T13" s="2">
         <v>67.156763</v>
@@ -2977,13 +3016,13 @@
         <v>1.41052367686529</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z13" s="2">
         <v>67.137283</v>
@@ -3009,22 +3048,25 @@
       <c r="AG13" s="2">
         <v>3.946530585</v>
       </c>
-      <c r="AH13" s="1" t="s">
-        <v>42</v>
+      <c r="AH13" s="2">
+        <v>3.946530585</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2">
         <v>67.14683333</v>
@@ -3042,16 +3084,16 @@
         <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N14" s="2">
         <v>67.156763</v>
@@ -3063,13 +3105,13 @@
         <v>1.41052367686529</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T14" s="2">
         <v>67.156763</v>
@@ -3081,13 +3123,13 @@
         <v>1.41052367686529</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z14" s="2">
         <v>67.137283</v>
@@ -3113,22 +3155,25 @@
       <c r="AG14" s="2">
         <v>3.946530585</v>
       </c>
-      <c r="AH14" s="1" t="s">
-        <v>42</v>
+      <c r="AH14" s="2">
+        <v>3.946530585</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2">
         <v>67.11708333</v>
@@ -3146,16 +3191,16 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N15" s="2">
         <v>67.130271</v>
@@ -3167,10 +3212,10 @@
         <v>1.5502706186924</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S15" s="2">
         <v>12800</v>
@@ -3185,13 +3230,13 @@
         <v>1.5502706186924</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z15" s="2">
         <v>67.137283</v>
@@ -3217,22 +3262,25 @@
       <c r="AG15" s="2">
         <v>5.25711888</v>
       </c>
-      <c r="AH15" s="1" t="s">
-        <v>42</v>
+      <c r="AH15" s="2">
+        <v>5.25711888</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2">
         <v>67.11708333</v>
@@ -3250,16 +3298,16 @@
         <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N16" s="2">
         <v>67.130271</v>
@@ -3271,10 +3319,10 @@
         <v>1.5502706186924</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S16" s="2">
         <v>12800</v>
@@ -3289,13 +3337,13 @@
         <v>1.5502706186924</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z16" s="2">
         <v>67.137283</v>
@@ -3321,22 +3369,25 @@
       <c r="AG16" s="2">
         <v>5.25711888</v>
       </c>
-      <c r="AH16" s="1" t="s">
-        <v>42</v>
+      <c r="AH16" s="2">
+        <v>5.25711888</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2">
         <v>67.11708333</v>
@@ -3354,16 +3405,16 @@
         <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N17" s="2">
         <v>67.130271</v>
@@ -3375,10 +3426,10 @@
         <v>1.5502706186924</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S17" s="2">
         <v>12800</v>
@@ -3393,13 +3444,13 @@
         <v>1.5502706186924</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z17" s="2">
         <v>67.137283</v>
@@ -3425,22 +3476,25 @@
       <c r="AG17" s="2">
         <v>5.25711888</v>
       </c>
-      <c r="AH17" s="1" t="s">
-        <v>42</v>
+      <c r="AH17" s="2">
+        <v>5.25711888</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2">
         <v>67.11708333</v>
@@ -3458,16 +3512,16 @@
         <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N18" s="2">
         <v>67.130271</v>
@@ -3479,10 +3533,10 @@
         <v>1.5502706186924</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S18" s="2">
         <v>12800</v>
@@ -3497,13 +3551,13 @@
         <v>1.5502706186924</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z18" s="2">
         <v>67.137283</v>
@@ -3529,22 +3583,25 @@
       <c r="AG18" s="2">
         <v>5.25711888</v>
       </c>
-      <c r="AH18" s="1" t="s">
-        <v>42</v>
+      <c r="AH18" s="2">
+        <v>5.25711888</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2">
         <v>67.11708333</v>
@@ -3562,16 +3619,16 @@
         <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N19" s="2">
         <v>67.130271</v>
@@ -3583,10 +3640,10 @@
         <v>1.5502706186924</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S19" s="2">
         <v>12800</v>
@@ -3601,13 +3658,13 @@
         <v>1.5502706186924</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z19" s="2">
         <v>67.137283</v>
@@ -3633,22 +3690,25 @@
       <c r="AG19" s="2">
         <v>5.25711888</v>
       </c>
-      <c r="AH19" s="1" t="s">
-        <v>42</v>
+      <c r="AH19" s="2">
+        <v>5.25711888</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2">
         <v>67.11316667</v>
@@ -3666,16 +3726,16 @@
         <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N20" s="2">
         <v>67.100373</v>
@@ -3687,10 +3747,10 @@
         <v>2.60139093364504</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S20" s="2">
         <v>12800</v>
@@ -3705,13 +3765,13 @@
         <v>9.89097032009599</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z20" s="2">
         <v>67.137283</v>
@@ -3737,22 +3797,25 @@
       <c r="AG20" s="2">
         <v>4.402051877</v>
       </c>
-      <c r="AH20" s="1" t="s">
-        <v>42</v>
+      <c r="AH20" s="2">
+        <v>4.402051877</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2">
         <v>67.11316667</v>
@@ -3770,16 +3833,16 @@
         <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N21" s="2">
         <v>67.100373</v>
@@ -3791,10 +3854,10 @@
         <v>2.60139093364504</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S21" s="2">
         <v>12800</v>
@@ -3809,13 +3872,13 @@
         <v>9.89097032009599</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z21" s="2">
         <v>67.137283</v>
@@ -3841,22 +3904,25 @@
       <c r="AG21" s="2">
         <v>4.402051877</v>
       </c>
-      <c r="AH21" s="1" t="s">
-        <v>42</v>
+      <c r="AH21" s="2">
+        <v>4.402051877</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2">
         <v>67.11316667</v>
@@ -3874,16 +3940,16 @@
         <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N22" s="2">
         <v>67.100373</v>
@@ -3895,10 +3961,10 @@
         <v>2.60139093364504</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S22" s="2">
         <v>12800</v>
@@ -3913,13 +3979,13 @@
         <v>9.89097032009599</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z22" s="2">
         <v>67.137283</v>
@@ -3945,22 +4011,25 @@
       <c r="AG22" s="2">
         <v>4.402051877</v>
       </c>
-      <c r="AH22" s="1" t="s">
-        <v>42</v>
+      <c r="AH22" s="2">
+        <v>4.402051877</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2">
         <v>67.11316667</v>
@@ -3978,16 +4047,16 @@
         <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N23" s="2">
         <v>67.100373</v>
@@ -3999,10 +4068,10 @@
         <v>2.60139093364504</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S23" s="2">
         <v>12800</v>
@@ -4017,13 +4086,13 @@
         <v>9.89097032009599</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z23" s="2">
         <v>67.137283</v>
@@ -4049,22 +4118,25 @@
       <c r="AG23" s="2">
         <v>4.402051877</v>
       </c>
-      <c r="AH23" s="1" t="s">
-        <v>42</v>
+      <c r="AH23" s="2">
+        <v>4.402051877</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2">
         <v>67.11316667</v>
@@ -4082,16 +4154,16 @@
         <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N24" s="2">
         <v>67.100373</v>
@@ -4103,10 +4175,10 @@
         <v>2.60139093364504</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S24" s="2">
         <v>12800</v>
@@ -4121,13 +4193,13 @@
         <v>9.89097032009599</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z24" s="2">
         <v>67.137283</v>
@@ -4153,22 +4225,25 @@
       <c r="AG24" s="2">
         <v>4.402051877</v>
       </c>
-      <c r="AH24" s="1" t="s">
-        <v>42</v>
+      <c r="AH24" s="2">
+        <v>4.402051877</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2">
         <v>67.11316667</v>
@@ -4186,16 +4261,16 @@
         <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N25" s="2">
         <v>67.100373</v>
@@ -4207,10 +4282,10 @@
         <v>2.60139093364504</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S25" s="2">
         <v>12800</v>
@@ -4225,13 +4300,13 @@
         <v>9.89097032009599</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z25" s="2">
         <v>67.137283</v>
@@ -4257,22 +4332,25 @@
       <c r="AG25" s="2">
         <v>4.402051877</v>
       </c>
-      <c r="AH25" s="1" t="s">
-        <v>42</v>
+      <c r="AH25" s="2">
+        <v>4.402051877</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2">
         <v>67.11316667</v>
@@ -4290,16 +4368,16 @@
         <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N26" s="2">
         <v>67.100373</v>
@@ -4311,10 +4389,10 @@
         <v>2.60139093364504</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S26" s="2">
         <v>12800</v>
@@ -4329,13 +4407,13 @@
         <v>9.89097032009599</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z26" s="2">
         <v>67.137283</v>
@@ -4361,22 +4439,25 @@
       <c r="AG26" s="2">
         <v>4.402051877</v>
       </c>
-      <c r="AH26" s="1" t="s">
-        <v>42</v>
+      <c r="AH26" s="2">
+        <v>4.402051877</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2">
         <v>67.11316667</v>
@@ -4394,16 +4475,16 @@
         <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N27" s="2">
         <v>67.100373</v>
@@ -4415,10 +4496,10 @@
         <v>2.60139093364504</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S27" s="2">
         <v>12800</v>
@@ -4433,13 +4514,13 @@
         <v>9.89097032009599</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z27" s="2">
         <v>67.137283</v>
@@ -4465,22 +4546,25 @@
       <c r="AG27" s="2">
         <v>4.402051877</v>
       </c>
-      <c r="AH27" s="1" t="s">
-        <v>42</v>
+      <c r="AH27" s="2">
+        <v>4.402051877</v>
+      </c>
+      <c r="AI27" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2">
         <v>67.11316667</v>
@@ -4498,16 +4582,16 @@
         <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N28" s="2">
         <v>67.100373</v>
@@ -4519,10 +4603,10 @@
         <v>2.60139093364504</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S28" s="2">
         <v>12800</v>
@@ -4537,13 +4621,13 @@
         <v>9.89097032009599</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z28" s="2">
         <v>67.137283</v>
@@ -4569,22 +4653,25 @@
       <c r="AG28" s="2">
         <v>4.402051877</v>
       </c>
-      <c r="AH28" s="1" t="s">
-        <v>42</v>
+      <c r="AH28" s="2">
+        <v>4.402051877</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2">
         <v>67.11316667</v>
@@ -4602,16 +4689,16 @@
         <v>16</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N29" s="2">
         <v>67.100373</v>
@@ -4623,10 +4710,10 @@
         <v>2.60139093364504</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S29" s="2">
         <v>12800</v>
@@ -4641,13 +4728,13 @@
         <v>9.89097032009599</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z29" s="2">
         <v>67.137283</v>
@@ -4673,22 +4760,25 @@
       <c r="AG29" s="2">
         <v>4.402051877</v>
       </c>
-      <c r="AH29" s="1" t="s">
-        <v>42</v>
+      <c r="AH29" s="2">
+        <v>4.402051877</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2">
         <v>67.11316667</v>
@@ -4706,16 +4796,16 @@
         <v>16</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N30" s="2">
         <v>67.100373</v>
@@ -4727,10 +4817,10 @@
         <v>2.60139093364504</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S30" s="2">
         <v>12800</v>
@@ -4745,13 +4835,13 @@
         <v>9.89097032009599</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z30" s="2">
         <v>67.137283</v>
@@ -4777,22 +4867,25 @@
       <c r="AG30" s="2">
         <v>4.402051877</v>
       </c>
-      <c r="AH30" s="1" t="s">
-        <v>42</v>
+      <c r="AH30" s="2">
+        <v>4.402051877</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2">
         <v>67.11316667</v>
@@ -4810,16 +4903,16 @@
         <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N31" s="2">
         <v>67.100373</v>
@@ -4831,10 +4924,10 @@
         <v>2.60139093364504</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S31" s="2">
         <v>12800</v>
@@ -4849,13 +4942,13 @@
         <v>9.89097032009599</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z31" s="2">
         <v>67.137283</v>
@@ -4881,22 +4974,25 @@
       <c r="AG31" s="2">
         <v>4.402051877</v>
       </c>
-      <c r="AH31" s="1" t="s">
-        <v>42</v>
+      <c r="AH31" s="2">
+        <v>4.402051877</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32" s="2">
         <v>67.09485</v>
@@ -4914,16 +5010,16 @@
         <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N32" s="2">
         <v>67.130271</v>
@@ -4935,10 +5031,10 @@
         <v>5.05048922328658</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S32" s="2">
         <v>12800</v>
@@ -4953,13 +5049,13 @@
         <v>5.05048922328658</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z32" s="2">
         <v>67.07657</v>
@@ -4985,22 +5081,25 @@
       <c r="AG32" s="2">
         <v>4.723191593</v>
       </c>
-      <c r="AH32" s="1" t="s">
-        <v>42</v>
+      <c r="AH32" s="2">
+        <v>4.723191593</v>
+      </c>
+      <c r="AI32" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2">
         <v>67.0947</v>
@@ -5018,16 +5117,16 @@
         <v>11</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N33" s="2">
         <v>67.130271</v>
@@ -5039,10 +5138,10 @@
         <v>4.22426901333677</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S33" s="2">
         <v>12800</v>
@@ -5057,13 +5156,13 @@
         <v>4.22426901333677</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z33" s="2">
         <v>67.137283</v>
@@ -5089,22 +5188,25 @@
       <c r="AG33" s="2">
         <v>5.854724135</v>
       </c>
-      <c r="AH33" s="1" t="s">
-        <v>42</v>
+      <c r="AH33" s="2">
+        <v>5.854724135</v>
+      </c>
+      <c r="AI33" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2">
         <v>67.0947</v>
@@ -5122,16 +5224,16 @@
         <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N34" s="2">
         <v>67.130271</v>
@@ -5143,10 +5245,10 @@
         <v>4.22426901333677</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S34" s="2">
         <v>12800</v>
@@ -5161,13 +5263,13 @@
         <v>4.22426901333677</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z34" s="2">
         <v>67.137283</v>
@@ -5193,22 +5295,25 @@
       <c r="AG34" s="2">
         <v>5.854724135</v>
       </c>
-      <c r="AH34" s="1" t="s">
-        <v>42</v>
+      <c r="AH34" s="2">
+        <v>5.854724135</v>
+      </c>
+      <c r="AI34" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2">
         <v>67.0947</v>
@@ -5226,16 +5331,16 @@
         <v>11</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N35" s="2">
         <v>67.130271</v>
@@ -5247,10 +5352,10 @@
         <v>4.22426901333677</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S35" s="2">
         <v>12800</v>
@@ -5265,13 +5370,13 @@
         <v>4.22426901333677</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z35" s="2">
         <v>67.137283</v>
@@ -5297,22 +5402,25 @@
       <c r="AG35" s="2">
         <v>5.854724135</v>
       </c>
-      <c r="AH35" s="1" t="s">
-        <v>42</v>
+      <c r="AH35" s="2">
+        <v>5.854724135</v>
+      </c>
+      <c r="AI35" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2">
         <v>66.701026</v>
@@ -5330,16 +5438,16 @@
         <v>24</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N36" s="2">
         <v>66.664609</v>
@@ -5351,10 +5459,10 @@
         <v>4.80368183749213</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S36" s="2">
         <v>6250</v>
@@ -5369,13 +5477,13 @@
         <v>4.80368183749213</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z36" s="2">
         <v>66.67797</v>
@@ -5401,22 +5509,25 @@
       <c r="AG36" s="2">
         <v>0.372050165</v>
       </c>
-      <c r="AH36" s="1" t="s">
-        <v>42</v>
+      <c r="AH36" s="2">
+        <v>0.372050165</v>
+      </c>
+      <c r="AI36" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2">
         <v>66.756506</v>
@@ -5434,16 +5545,16 @@
         <v>18</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N37" s="2">
         <v>66.747609</v>
@@ -5455,10 +5566,10 @@
         <v>10.7696167280566</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S37" s="2">
         <v>240</v>
@@ -5473,13 +5584,13 @@
         <v>12.2801265853892</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z37" s="2">
         <v>66.67797</v>
@@ -5505,22 +5616,25 @@
       <c r="AG37" s="2">
         <v>6.048629518</v>
       </c>
-      <c r="AH37" s="1" t="s">
-        <v>42</v>
+      <c r="AH37" s="2">
+        <v>6.048629518</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2">
         <v>67.02585</v>
@@ -5538,16 +5652,16 @@
         <v>22</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N38" s="2">
         <v>67.100373</v>
@@ -5559,10 +5673,10 @@
         <v>10.656923145946</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S38" s="2">
         <v>12800</v>
@@ -5577,13 +5691,13 @@
         <v>12.7254328226789</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z38" s="2">
         <v>67.07657</v>
@@ -5609,22 +5723,25 @@
       <c r="AG38" s="2">
         <v>1.294854444</v>
       </c>
-      <c r="AH38" s="1" t="s">
-        <v>42</v>
+      <c r="AH38" s="2">
+        <v>1.294854444</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2">
         <v>67.02585</v>
@@ -5642,16 +5759,16 @@
         <v>22</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N39" s="2">
         <v>67.100373</v>
@@ -5663,10 +5780,10 @@
         <v>10.656923145946</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S39" s="2">
         <v>12800</v>
@@ -5681,13 +5798,13 @@
         <v>12.7254328226789</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z39" s="2">
         <v>67.07657</v>
@@ -5713,22 +5830,25 @@
       <c r="AG39" s="2">
         <v>1.294854444</v>
       </c>
-      <c r="AH39" s="1" t="s">
-        <v>42</v>
+      <c r="AH39" s="2">
+        <v>1.294854444</v>
+      </c>
+      <c r="AI39" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2">
         <v>67.00683333</v>
@@ -5746,16 +5866,16 @@
         <v>21</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N40" s="2">
         <v>67.100373</v>
@@ -5767,10 +5887,10 @@
         <v>11.4982269814976</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S40" s="2">
         <v>12800</v>
@@ -5785,13 +5905,13 @@
         <v>15.4123552613819</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z40" s="2">
         <v>67.07657</v>
@@ -5817,22 +5937,25 @@
       <c r="AG40" s="2">
         <v>3.260637619</v>
       </c>
-      <c r="AH40" s="1" t="s">
-        <v>42</v>
+      <c r="AH40" s="2">
+        <v>3.260637619</v>
+      </c>
+      <c r="AI40" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2">
         <v>67.00683333</v>
@@ -5850,16 +5973,16 @@
         <v>21</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N41" s="2">
         <v>67.100373</v>
@@ -5871,10 +5994,10 @@
         <v>11.4982269814976</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S41" s="2">
         <v>12800</v>
@@ -5889,13 +6012,13 @@
         <v>15.4123552613819</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z41" s="2">
         <v>67.07657</v>
@@ -5921,22 +6044,25 @@
       <c r="AG41" s="2">
         <v>3.260637619</v>
       </c>
-      <c r="AH41" s="1" t="s">
-        <v>42</v>
+      <c r="AH41" s="2">
+        <v>3.260637619</v>
+      </c>
+      <c r="AI41" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2">
         <v>67.00683333</v>
@@ -5954,16 +6080,16 @@
         <v>21</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N42" s="2">
         <v>67.100373</v>
@@ -5975,10 +6101,10 @@
         <v>11.4982269814976</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S42" s="2">
         <v>12800</v>
@@ -5993,13 +6119,13 @@
         <v>15.4123552613819</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z42" s="2">
         <v>67.07657</v>
@@ -6025,22 +6151,25 @@
       <c r="AG42" s="2">
         <v>3.260637619</v>
       </c>
-      <c r="AH42" s="1" t="s">
-        <v>42</v>
+      <c r="AH42" s="2">
+        <v>3.260637619</v>
+      </c>
+      <c r="AI42" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2">
         <v>67.12602</v>
@@ -6058,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N43" s="2">
         <v>67.130271</v>
@@ -6079,10 +6208,10 @@
         <v>2.54544609330843</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S43" s="2">
         <v>12800</v>
@@ -6097,13 +6226,13 @@
         <v>2.54544609330843</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z43" s="2">
         <v>67.137283</v>
@@ -6129,22 +6258,25 @@
       <c r="AG43" s="2">
         <v>4.385559324</v>
       </c>
-      <c r="AH43" s="1" t="s">
-        <v>42</v>
+      <c r="AH43" s="2">
+        <v>4.385559324</v>
+      </c>
+      <c r="AI43" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2">
         <v>66.664503</v>
@@ -6162,16 +6294,16 @@
         <v>24</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N44" s="2">
         <v>66.664609</v>
@@ -6183,10 +6315,10 @@
         <v>0.0385790232649483</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S44" s="2">
         <v>6250</v>
@@ -6201,13 +6333,13 @@
         <v>0.0385790232649483</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z44" s="2">
         <v>66.67797</v>
@@ -6233,22 +6365,25 @@
       <c r="AG44" s="2">
         <v>9.631626458</v>
       </c>
-      <c r="AH44" s="1" t="s">
-        <v>42</v>
+      <c r="AH44" s="2">
+        <v>9.631626458</v>
+      </c>
+      <c r="AI44" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E45" s="2">
         <v>66.68556</v>
@@ -6266,16 +6401,16 @@
         <v>24</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N45" s="2">
         <v>66.664609</v>
@@ -6287,10 +6422,10 @@
         <v>2.87259676782328</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S45" s="2">
         <v>6250</v>
@@ -6305,13 +6440,13 @@
         <v>2.87259676782328</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z45" s="2">
         <v>66.67797</v>
@@ -6337,22 +6472,25 @@
       <c r="AG45" s="2">
         <v>0.273856774</v>
       </c>
-      <c r="AH45" s="1" t="s">
-        <v>42</v>
+      <c r="AH45" s="2">
+        <v>0.273856774</v>
+      </c>
+      <c r="AI45" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E46" s="2">
         <v>66.683231</v>
@@ -6370,16 +6508,16 @@
         <v>24</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N46" s="2">
         <v>66.664609</v>
@@ -6391,10 +6529,10 @@
         <v>2.61039817648096</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S46" s="2">
         <v>6250</v>
@@ -6409,13 +6547,13 @@
         <v>2.61039817648096</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z46" s="2">
         <v>66.67797</v>
@@ -6441,22 +6579,25 @@
       <c r="AG46" s="2">
         <v>1.029384318</v>
       </c>
-      <c r="AH46" s="1" t="s">
-        <v>42</v>
+      <c r="AH46" s="2">
+        <v>1.029384318</v>
+      </c>
+      <c r="AI46" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E47" s="2">
         <v>66.696303</v>
@@ -6474,16 +6615,16 @@
         <v>24</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N47" s="2">
         <v>66.664609</v>
@@ -6495,10 +6636,10 @@
         <v>4.26602067311126</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S47" s="2">
         <v>6250</v>
@@ -6513,13 +6654,13 @@
         <v>4.26602067311126</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z47" s="2">
         <v>66.67797</v>
@@ -6545,22 +6686,25 @@
       <c r="AG47" s="2">
         <v>0.504501792</v>
       </c>
-      <c r="AH47" s="1" t="s">
-        <v>42</v>
+      <c r="AH47" s="2">
+        <v>0.504501792</v>
+      </c>
+      <c r="AI47" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E48" s="2">
         <v>66.655254</v>
@@ -6578,16 +6722,16 @@
         <v>24</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N48" s="2">
         <v>66.664609</v>
@@ -6599,10 +6743,10 @@
         <v>2.12505404938796</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S48" s="2">
         <v>6250</v>
@@ -6617,13 +6761,13 @@
         <v>2.12505404938796</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z48" s="2">
         <v>66.67797</v>
@@ -6649,22 +6793,25 @@
       <c r="AG48" s="2">
         <v>7.777543886</v>
       </c>
-      <c r="AH48" s="1" t="s">
-        <v>111</v>
+      <c r="AH48" s="2">
+        <v>7.777543886</v>
+      </c>
+      <c r="AI48" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E49" s="2">
         <v>66.677426</v>
@@ -6682,16 +6829,16 @@
         <v>24</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N49" s="2">
         <v>66.664609</v>
@@ -6703,10 +6850,10 @@
         <v>3.47144750584811</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S49" s="2">
         <v>6250</v>
@@ -6721,13 +6868,13 @@
         <v>3.47144750584811</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z49" s="2">
         <v>66.67797</v>
@@ -6753,22 +6900,25 @@
       <c r="AG49" s="2">
         <v>0.40747733</v>
       </c>
-      <c r="AH49" s="1" t="s">
-        <v>42</v>
+      <c r="AH49" s="2">
+        <v>0.40747733</v>
+      </c>
+      <c r="AI49" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2">
         <v>66.940997</v>
@@ -6786,16 +6936,16 @@
         <v>17</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N50" s="2">
         <v>66.871784</v>
@@ -6807,13 +6957,13 @@
         <v>7.7847445111979</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T50" s="2">
         <v>66.871784</v>
@@ -6825,13 +6975,13 @@
         <v>7.7847445111979</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z50" s="2">
         <v>67.07657</v>
@@ -6857,22 +7007,25 @@
       <c r="AG50" s="2">
         <v>1.870871646</v>
       </c>
-      <c r="AH50" s="1" t="s">
-        <v>42</v>
+      <c r="AH50" s="2">
+        <v>1.870871646</v>
+      </c>
+      <c r="AI50" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2">
         <v>66.940997</v>
@@ -6890,16 +7043,16 @@
         <v>17</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N51" s="2">
         <v>66.871784</v>
@@ -6911,13 +7064,13 @@
         <v>7.7847445111979</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T51" s="2">
         <v>66.871784</v>
@@ -6929,13 +7082,13 @@
         <v>7.7847445111979</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z51" s="2">
         <v>67.07657</v>
@@ -6961,22 +7114,25 @@
       <c r="AG51" s="2">
         <v>1.870871646</v>
       </c>
-      <c r="AH51" s="1" t="s">
-        <v>42</v>
+      <c r="AH51" s="2">
+        <v>1.870871646</v>
+      </c>
+      <c r="AI51" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2">
         <v>66.940997</v>
@@ -6994,16 +7150,16 @@
         <v>17</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N52" s="2">
         <v>66.871784</v>
@@ -7015,13 +7171,13 @@
         <v>7.7847445111979</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T52" s="2">
         <v>66.871784</v>
@@ -7033,13 +7189,13 @@
         <v>7.7847445111979</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z52" s="2">
         <v>67.07657</v>
@@ -7065,22 +7221,25 @@
       <c r="AG52" s="2">
         <v>1.870871646</v>
       </c>
-      <c r="AH52" s="1" t="s">
-        <v>42</v>
+      <c r="AH52" s="2">
+        <v>1.870871646</v>
+      </c>
+      <c r="AI52" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2">
         <v>66.940997</v>
@@ -7098,16 +7257,16 @@
         <v>17</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N53" s="2">
         <v>66.871784</v>
@@ -7119,13 +7278,13 @@
         <v>7.7847445111979</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T53" s="2">
         <v>66.871784</v>
@@ -7137,13 +7296,13 @@
         <v>7.7847445111979</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z53" s="2">
         <v>67.07657</v>
@@ -7169,22 +7328,25 @@
       <c r="AG53" s="2">
         <v>1.870871646</v>
       </c>
-      <c r="AH53" s="1" t="s">
-        <v>42</v>
+      <c r="AH53" s="2">
+        <v>1.870871646</v>
+      </c>
+      <c r="AI53" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2">
         <v>66.940997</v>
@@ -7202,16 +7364,16 @@
         <v>17</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N54" s="2">
         <v>66.871784</v>
@@ -7223,13 +7385,13 @@
         <v>7.7847445111979</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T54" s="2">
         <v>66.871784</v>
@@ -7241,13 +7403,13 @@
         <v>7.7847445111979</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z54" s="2">
         <v>67.07657</v>
@@ -7273,22 +7435,25 @@
       <c r="AG54" s="2">
         <v>1.870871646</v>
       </c>
-      <c r="AH54" s="1" t="s">
-        <v>42</v>
+      <c r="AH54" s="2">
+        <v>1.870871646</v>
+      </c>
+      <c r="AI54" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2">
         <v>66.940997</v>
@@ -7306,16 +7471,16 @@
         <v>17</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N55" s="2">
         <v>66.871784</v>
@@ -7327,13 +7492,13 @@
         <v>7.7847445111979</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T55" s="2">
         <v>66.871784</v>
@@ -7345,13 +7510,13 @@
         <v>7.7847445111979</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z55" s="2">
         <v>67.07657</v>
@@ -7377,22 +7542,25 @@
       <c r="AG55" s="2">
         <v>1.870871646</v>
       </c>
-      <c r="AH55" s="1" t="s">
-        <v>42</v>
+      <c r="AH55" s="2">
+        <v>1.870871646</v>
+      </c>
+      <c r="AI55" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2">
         <v>66.934989</v>
@@ -7410,16 +7578,16 @@
         <v>17</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N56" s="2">
         <v>66.871784</v>
@@ -7431,13 +7599,13 @@
         <v>8.23836698874238</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T56" s="2">
         <v>66.871784</v>
@@ -7449,13 +7617,13 @@
         <v>8.23836698874238</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z56" s="2">
         <v>67.07657</v>
@@ -7481,22 +7649,25 @@
       <c r="AG56" s="2">
         <v>0.324959606</v>
       </c>
-      <c r="AH56" s="1" t="s">
-        <v>42</v>
+      <c r="AH56" s="2">
+        <v>0.324959606</v>
+      </c>
+      <c r="AI56" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2">
         <v>66.934989</v>
@@ -7514,16 +7685,16 @@
         <v>17</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N57" s="2">
         <v>66.871784</v>
@@ -7535,13 +7706,13 @@
         <v>8.23836698874238</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T57" s="2">
         <v>66.871784</v>
@@ -7553,13 +7724,13 @@
         <v>8.23836698874238</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z57" s="2">
         <v>67.07657</v>
@@ -7585,22 +7756,25 @@
       <c r="AG57" s="2">
         <v>0.324959606</v>
       </c>
-      <c r="AH57" s="1" t="s">
-        <v>42</v>
+      <c r="AH57" s="2">
+        <v>0.324959606</v>
+      </c>
+      <c r="AI57" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2">
         <v>66.934989</v>
@@ -7618,16 +7792,16 @@
         <v>17</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N58" s="2">
         <v>66.871784</v>
@@ -7639,13 +7813,13 @@
         <v>8.23836698874238</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T58" s="2">
         <v>66.871784</v>
@@ -7657,13 +7831,13 @@
         <v>8.23836698874238</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z58" s="2">
         <v>67.07657</v>
@@ -7689,22 +7863,25 @@
       <c r="AG58" s="2">
         <v>0.324959606</v>
       </c>
-      <c r="AH58" s="1" t="s">
-        <v>42</v>
+      <c r="AH58" s="2">
+        <v>0.324959606</v>
+      </c>
+      <c r="AI58" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2">
         <v>66.934989</v>
@@ -7722,16 +7899,16 @@
         <v>17</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N59" s="2">
         <v>66.871784</v>
@@ -7743,13 +7920,13 @@
         <v>8.23836698874238</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T59" s="2">
         <v>66.871784</v>
@@ -7761,13 +7938,13 @@
         <v>8.23836698874238</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z59" s="2">
         <v>67.07657</v>
@@ -7793,22 +7970,25 @@
       <c r="AG59" s="2">
         <v>0.324959606</v>
       </c>
-      <c r="AH59" s="1" t="s">
-        <v>42</v>
+      <c r="AH59" s="2">
+        <v>0.324959606</v>
+      </c>
+      <c r="AI59" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2">
         <v>66.934989</v>
@@ -7826,16 +8006,16 @@
         <v>17</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N60" s="2">
         <v>66.871784</v>
@@ -7847,13 +8027,13 @@
         <v>8.23836698874238</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T60" s="2">
         <v>66.871784</v>
@@ -7865,13 +8045,13 @@
         <v>8.23836698874238</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z60" s="2">
         <v>67.07657</v>
@@ -7897,22 +8077,25 @@
       <c r="AG60" s="2">
         <v>0.324959606</v>
       </c>
-      <c r="AH60" s="1" t="s">
-        <v>42</v>
+      <c r="AH60" s="2">
+        <v>0.324959606</v>
+      </c>
+      <c r="AI60" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2">
         <v>66.934989</v>
@@ -7930,16 +8113,16 @@
         <v>17</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N61" s="2">
         <v>66.871784</v>
@@ -7951,13 +8134,13 @@
         <v>8.23836698874238</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T61" s="2">
         <v>66.871784</v>
@@ -7969,13 +8152,13 @@
         <v>8.23836698874238</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z61" s="2">
         <v>67.07657</v>
@@ -8001,22 +8184,25 @@
       <c r="AG61" s="2">
         <v>0.324959606</v>
       </c>
-      <c r="AH61" s="1" t="s">
-        <v>42</v>
+      <c r="AH61" s="2">
+        <v>0.324959606</v>
+      </c>
+      <c r="AI61" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2">
         <v>66.928172</v>
@@ -8034,16 +8220,16 @@
         <v>17</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N62" s="2">
         <v>66.871784</v>
@@ -8055,13 +8241,13 @@
         <v>7.25949517353554</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T62" s="2">
         <v>66.871784</v>
@@ -8073,13 +8259,13 @@
         <v>7.25949517353554</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z62" s="2">
         <v>67.07657</v>
@@ -8105,22 +8291,25 @@
       <c r="AG62" s="2">
         <v>9.011456992</v>
       </c>
-      <c r="AH62" s="1" t="s">
-        <v>42</v>
+      <c r="AH62" s="2">
+        <v>9.011456992</v>
+      </c>
+      <c r="AI62" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2">
         <v>66.928172</v>
@@ -8138,16 +8327,16 @@
         <v>17</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N63" s="2">
         <v>66.871784</v>
@@ -8159,13 +8348,13 @@
         <v>7.25949517353554</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T63" s="2">
         <v>66.871784</v>
@@ -8177,13 +8366,13 @@
         <v>7.25949517353554</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z63" s="2">
         <v>67.07657</v>
@@ -8209,22 +8398,25 @@
       <c r="AG63" s="2">
         <v>9.011456992</v>
       </c>
-      <c r="AH63" s="1" t="s">
-        <v>42</v>
+      <c r="AH63" s="2">
+        <v>9.011456992</v>
+      </c>
+      <c r="AI63" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2">
         <v>66.928172</v>
@@ -8242,16 +8434,16 @@
         <v>17</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N64" s="2">
         <v>66.871784</v>
@@ -8263,13 +8455,13 @@
         <v>7.25949517353554</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T64" s="2">
         <v>66.871784</v>
@@ -8281,13 +8473,13 @@
         <v>7.25949517353554</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z64" s="2">
         <v>67.07657</v>
@@ -8313,22 +8505,25 @@
       <c r="AG64" s="2">
         <v>9.011456992</v>
       </c>
-      <c r="AH64" s="1" t="s">
-        <v>42</v>
+      <c r="AH64" s="2">
+        <v>9.011456992</v>
+      </c>
+      <c r="AI64" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2">
         <v>66.928172</v>
@@ -8346,16 +8541,16 @@
         <v>17</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N65" s="2">
         <v>66.871784</v>
@@ -8367,13 +8562,13 @@
         <v>7.25949517353554</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T65" s="2">
         <v>66.871784</v>
@@ -8385,13 +8580,13 @@
         <v>7.25949517353554</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z65" s="2">
         <v>67.07657</v>
@@ -8417,22 +8612,25 @@
       <c r="AG65" s="2">
         <v>9.011456992</v>
       </c>
-      <c r="AH65" s="1" t="s">
-        <v>42</v>
+      <c r="AH65" s="2">
+        <v>9.011456992</v>
+      </c>
+      <c r="AI65" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2">
         <v>66.928172</v>
@@ -8450,16 +8648,16 @@
         <v>17</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N66" s="2">
         <v>66.871784</v>
@@ -8471,13 +8669,13 @@
         <v>7.25949517353554</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T66" s="2">
         <v>66.871784</v>
@@ -8489,13 +8687,13 @@
         <v>7.25949517353554</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z66" s="2">
         <v>67.07657</v>
@@ -8521,22 +8719,25 @@
       <c r="AG66" s="2">
         <v>9.011456992</v>
       </c>
-      <c r="AH66" s="1" t="s">
-        <v>42</v>
+      <c r="AH66" s="2">
+        <v>9.011456992</v>
+      </c>
+      <c r="AI66" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E67" s="2">
         <v>66.928172</v>
@@ -8554,16 +8755,16 @@
         <v>17</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N67" s="2">
         <v>66.871784</v>
@@ -8575,13 +8776,13 @@
         <v>7.25949517353554</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T67" s="2">
         <v>66.871784</v>
@@ -8593,13 +8794,13 @@
         <v>7.25949517353554</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X67" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z67" s="2">
         <v>67.07657</v>
@@ -8625,22 +8826,25 @@
       <c r="AG67" s="2">
         <v>9.011456992</v>
       </c>
-      <c r="AH67" s="1" t="s">
-        <v>42</v>
+      <c r="AH67" s="2">
+        <v>9.011456992</v>
+      </c>
+      <c r="AI67" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E68" s="2">
         <v>67.00746</v>
@@ -8658,16 +8862,16 @@
         <v>20</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N68" s="2">
         <v>67.100373</v>
@@ -8679,10 +8883,10 @@
         <v>11.5991628873516</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S68" s="2">
         <v>12800</v>
@@ -8697,13 +8901,13 @@
         <v>15.1844561762457</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z68" s="2">
         <v>67.07657</v>
@@ -8729,22 +8933,25 @@
       <c r="AG68" s="2">
         <v>1.879826359</v>
       </c>
-      <c r="AH68" s="1" t="s">
-        <v>42</v>
+      <c r="AH68" s="2">
+        <v>1.879826359</v>
+      </c>
+      <c r="AI68" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E69" s="2">
         <v>67.00746</v>
@@ -8762,16 +8969,16 @@
         <v>20</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N69" s="2">
         <v>67.100373</v>
@@ -8783,10 +8990,10 @@
         <v>11.5991628873516</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S69" s="2">
         <v>12800</v>
@@ -8801,13 +9008,13 @@
         <v>15.1844561762457</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y69" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z69" s="2">
         <v>67.07657</v>
@@ -8833,22 +9040,25 @@
       <c r="AG69" s="2">
         <v>1.879826359</v>
       </c>
-      <c r="AH69" s="1" t="s">
-        <v>42</v>
+      <c r="AH69" s="2">
+        <v>1.879826359</v>
+      </c>
+      <c r="AI69" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2">
         <v>67.00746</v>
@@ -8866,16 +9076,16 @@
         <v>20</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N70" s="2">
         <v>67.100373</v>
@@ -8887,10 +9097,10 @@
         <v>11.5991628873516</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S70" s="2">
         <v>12800</v>
@@ -8905,13 +9115,13 @@
         <v>15.1844561762457</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z70" s="2">
         <v>67.07657</v>
@@ -8937,12 +9147,15 @@
       <c r="AG70" s="2">
         <v>1.879826359</v>
       </c>
-      <c r="AH70" s="1" t="s">
-        <v>42</v>
+      <c r="AH70" s="2">
+        <v>1.879826359</v>
+      </c>
+      <c r="AI70" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH70">
+  <autoFilter ref="A1:AI70">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9062,21 +9275,21 @@
         <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2">
         <v>67.111241</v>
@@ -9091,19 +9304,19 @@
         <v>266</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2">
         <v>67.100373</v>
@@ -9115,10 +9328,10 @@
         <v>2.71343103306778</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S2" s="2">
         <v>12800</v>
@@ -9133,13 +9346,13 @@
         <v>9.68938237290291</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z2" s="2">
         <v>67.137283</v>
@@ -9166,21 +9379,21 @@
         <v>3.671570631</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
         <v>67.02585</v>
@@ -9195,19 +9408,19 @@
         <v>188</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3" s="2">
         <v>67.100373</v>
@@ -9219,10 +9432,10 @@
         <v>10.656923145946</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S3" s="2">
         <v>12800</v>
@@ -9237,13 +9450,13 @@
         <v>12.7254328226789</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z3" s="2">
         <v>67.07657</v>
@@ -9270,21 +9483,21 @@
         <v>1.294854444</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2">
         <v>67.02585</v>
@@ -9299,19 +9512,19 @@
         <v>103</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N4" s="2">
         <v>67.100373</v>
@@ -9323,10 +9536,10 @@
         <v>10.656923145946</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S4" s="2">
         <v>12800</v>
@@ -9341,13 +9554,13 @@
         <v>12.7254328226789</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="2">
         <v>67.07657</v>
@@ -9374,21 +9587,21 @@
         <v>1.294854444</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2">
         <v>67.02585</v>
@@ -9403,19 +9616,19 @@
         <v>124</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N5" s="2">
         <v>67.100373</v>
@@ -9427,10 +9640,10 @@
         <v>10.656923145946</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S5" s="2">
         <v>12800</v>
@@ -9445,13 +9658,13 @@
         <v>12.7254328226789</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z5" s="2">
         <v>67.07657</v>
@@ -9478,21 +9691,21 @@
         <v>1.294854444</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2">
         <v>67.02585</v>
@@ -9507,19 +9720,19 @@
         <v>58</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6" s="2">
         <v>67.100373</v>
@@ -9531,10 +9744,10 @@
         <v>10.656923145946</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S6" s="2">
         <v>12800</v>
@@ -9549,13 +9762,13 @@
         <v>12.7254328226789</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z6" s="2">
         <v>67.07657</v>
@@ -9582,21 +9795,21 @@
         <v>1.294854444</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2">
         <v>67.00683333</v>
@@ -9611,19 +9824,19 @@
         <v>118</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N7" s="2">
         <v>67.100373</v>
@@ -9635,10 +9848,10 @@
         <v>11.4982269814976</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S7" s="2">
         <v>12800</v>
@@ -9653,13 +9866,13 @@
         <v>15.4123552613819</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z7" s="2">
         <v>67.07657</v>
@@ -9686,21 +9899,21 @@
         <v>3.260637619</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2">
         <v>67.00683333</v>
@@ -9715,19 +9928,19 @@
         <v>129</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N8" s="2">
         <v>67.100373</v>
@@ -9739,10 +9952,10 @@
         <v>11.4982269814976</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S8" s="2">
         <v>12800</v>
@@ -9757,13 +9970,13 @@
         <v>15.4123552613819</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z8" s="2">
         <v>67.07657</v>
@@ -9790,21 +10003,21 @@
         <v>3.260637619</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2">
         <v>67.00683333</v>
@@ -9819,19 +10032,19 @@
         <v>74</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N9" s="2">
         <v>67.100373</v>
@@ -9843,10 +10056,10 @@
         <v>11.4982269814976</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S9" s="2">
         <v>12800</v>
@@ -9861,13 +10074,13 @@
         <v>15.4123552613819</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z9" s="2">
         <v>67.07657</v>
@@ -9894,21 +10107,21 @@
         <v>3.260637619</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2">
         <v>67.00746</v>
@@ -9923,19 +10136,19 @@
         <v>413</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N10" s="2">
         <v>67.100373</v>
@@ -9947,10 +10160,10 @@
         <v>11.5991628873516</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S10" s="2">
         <v>12800</v>
@@ -9965,13 +10178,13 @@
         <v>15.1844561762457</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z10" s="2">
         <v>67.07657</v>
@@ -9998,21 +10211,21 @@
         <v>1.879826359</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2">
         <v>67.00746</v>
@@ -10027,19 +10240,19 @@
         <v>246</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N11" s="2">
         <v>67.100373</v>
@@ -10051,10 +10264,10 @@
         <v>11.5991628873516</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S11" s="2">
         <v>12800</v>
@@ -10069,13 +10282,13 @@
         <v>15.1844561762457</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z11" s="2">
         <v>67.07657</v>
@@ -10102,21 +10315,21 @@
         <v>1.879826359</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2">
         <v>66.671221</v>
@@ -10131,19 +10344,19 @@
         <v>63</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N12" s="2">
         <v>66.664609</v>
@@ -10155,10 +10368,10 @@
         <v>1.56937852440207</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S12" s="2">
         <v>6250</v>
@@ -10173,13 +10386,13 @@
         <v>1.56937852440207</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z12" s="2">
         <v>66.67797</v>
@@ -10206,7 +10419,7 @@
         <v>0.328294209</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/myt_White_Sea_testing_data_set.xlsx
+++ b/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/myt_White_Sea_testing_data_set.xlsx
@@ -4,21 +4,34 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144"/>
+    <workbookView windowWidth="22188" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="myt_White_Sea_testing" sheetId="1" r:id="rId1"/>
     <sheet name="Excluded_samples" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">myt_White_Sea_testing!$A$1:$AJ$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">myt_White_Sea_testing!$A$1:$AJ$67</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="152">
   <si>
     <t>Site</t>
   </si>
@@ -305,6 +318,15 @@
     <t>Ryazh23</t>
   </si>
   <si>
+    <t>Ryazh20</t>
+  </si>
+  <si>
+    <t>Ryazh22</t>
+  </si>
+  <si>
+    <t>Ryazh24</t>
+  </si>
+  <si>
     <t>Ryazh5</t>
   </si>
   <si>
@@ -317,6 +339,12 @@
     <t>Ryazh29</t>
   </si>
   <si>
+    <t>Ryazh26</t>
+  </si>
+  <si>
+    <t>Ryazh28</t>
+  </si>
+  <si>
     <t>Vor2</t>
   </si>
   <si>
@@ -399,33 +427,6 @@
   </si>
   <si>
     <t>yuzh4</t>
-  </si>
-  <si>
-    <t>Ryazh20</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Ryazh21</t>
-  </si>
-  <si>
-    <t>Ryazh22</t>
-  </si>
-  <si>
-    <t>Ryazh24</t>
-  </si>
-  <si>
-    <t>Ryazh26</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Ryazh28</t>
-  </si>
-  <si>
-    <t>Ryazh30</t>
   </si>
   <si>
     <t>umba_fg</t>
@@ -491,7 +492,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
@@ -1648,12 +1649,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ62"/>
+  <dimension ref="A1:AJ67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="624" topLeftCell="A1" activePane="bottomLeft"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -5635,36 +5636,36 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" customFormat="1" spans="1:36">
       <c r="A37" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F37" s="2">
-        <v>67.00683333</v>
+        <v>67.02585</v>
       </c>
       <c r="G37" s="2">
-        <v>32.58006667</v>
+        <v>32.5385</v>
       </c>
       <c r="H37" s="2">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I37" s="2">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="J37" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>40</v>
@@ -5685,7 +5686,7 @@
         <v>32.693133</v>
       </c>
       <c r="Q37" s="2">
-        <v>11.4982269814976</v>
+        <v>10.656923145946</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>40</v>
@@ -5703,7 +5704,7 @@
         <v>32.418253</v>
       </c>
       <c r="W37" s="2">
-        <v>15.4123552613819</v>
+        <v>12.7254328226789</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>92</v>
@@ -5721,60 +5722,60 @@
         <v>32.33363</v>
       </c>
       <c r="AC37" s="2">
-        <v>13.2051890725244</v>
+        <v>10.521531504242</v>
       </c>
       <c r="AD37" s="2">
-        <v>0.102500247</v>
+        <v>5.007510109</v>
       </c>
       <c r="AE37" s="2">
-        <v>6.916565229</v>
+        <v>0.146991378</v>
       </c>
       <c r="AF37" s="2">
-        <v>5.558672383</v>
+        <v>0.020426425</v>
       </c>
       <c r="AG37" s="2">
-        <v>0.464812617</v>
+        <v>0.004489863</v>
       </c>
       <c r="AH37" s="2">
-        <v>3.260637619</v>
+        <v>1.294854444</v>
       </c>
       <c r="AI37" s="2">
-        <v>3.260637619</v>
+        <v>1.294854444</v>
       </c>
       <c r="AJ37" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" customFormat="1" spans="1:36">
       <c r="A38" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F38" s="2">
-        <v>67.00683333</v>
+        <v>67.02585</v>
       </c>
       <c r="G38" s="2">
-        <v>32.58006667</v>
+        <v>32.5385</v>
       </c>
       <c r="H38" s="2">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I38" s="2">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="J38" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>40</v>
@@ -5795,7 +5796,7 @@
         <v>32.693133</v>
       </c>
       <c r="Q38" s="2">
-        <v>11.4982269814976</v>
+        <v>10.656923145946</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>40</v>
@@ -5813,7 +5814,7 @@
         <v>32.418253</v>
       </c>
       <c r="W38" s="2">
-        <v>15.4123552613819</v>
+        <v>12.7254328226789</v>
       </c>
       <c r="X38" s="1" t="s">
         <v>92</v>
@@ -5831,60 +5832,60 @@
         <v>32.33363</v>
       </c>
       <c r="AC38" s="2">
-        <v>13.2051890725244</v>
+        <v>10.521531504242</v>
       </c>
       <c r="AD38" s="2">
-        <v>0.102500247</v>
+        <v>5.007510109</v>
       </c>
       <c r="AE38" s="2">
-        <v>6.916565229</v>
+        <v>0.146991378</v>
       </c>
       <c r="AF38" s="2">
-        <v>5.558672383</v>
+        <v>0.020426425</v>
       </c>
       <c r="AG38" s="2">
-        <v>0.464812617</v>
+        <v>0.004489863</v>
       </c>
       <c r="AH38" s="2">
-        <v>3.260637619</v>
+        <v>1.294854444</v>
       </c>
       <c r="AI38" s="2">
-        <v>3.260637619</v>
+        <v>1.294854444</v>
       </c>
       <c r="AJ38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" customFormat="1" spans="1:36">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F39" s="2">
-        <v>67.00683333</v>
+        <v>67.02585</v>
       </c>
       <c r="G39" s="2">
-        <v>32.58006667</v>
+        <v>32.5385</v>
       </c>
       <c r="H39" s="2">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="I39" s="2">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="J39" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>40</v>
@@ -5905,7 +5906,7 @@
         <v>32.693133</v>
       </c>
       <c r="Q39" s="2">
-        <v>11.4982269814976</v>
+        <v>10.656923145946</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>40</v>
@@ -5923,7 +5924,7 @@
         <v>32.418253</v>
       </c>
       <c r="W39" s="2">
-        <v>15.4123552613819</v>
+        <v>12.7254328226789</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>92</v>
@@ -5941,25 +5942,25 @@
         <v>32.33363</v>
       </c>
       <c r="AC39" s="2">
-        <v>13.2051890725244</v>
+        <v>10.521531504242</v>
       </c>
       <c r="AD39" s="2">
-        <v>0.102500247</v>
+        <v>5.007510109</v>
       </c>
       <c r="AE39" s="2">
-        <v>6.916565229</v>
+        <v>0.146991378</v>
       </c>
       <c r="AF39" s="2">
-        <v>5.558672383</v>
+        <v>0.020426425</v>
       </c>
       <c r="AG39" s="2">
-        <v>0.464812617</v>
+        <v>0.004489863</v>
       </c>
       <c r="AH39" s="2">
-        <v>3.260637619</v>
+        <v>1.294854444</v>
       </c>
       <c r="AI39" s="2">
-        <v>3.260637619</v>
+        <v>1.294854444</v>
       </c>
       <c r="AJ39" s="1" t="s">
         <v>47</v>
@@ -5967,73 +5968,73 @@
     </row>
     <row r="40" spans="1:36">
       <c r="A40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F40" s="2">
-        <v>66.940997</v>
+        <v>67.00683333</v>
       </c>
       <c r="G40" s="2">
-        <v>32.434276</v>
+        <v>32.58006667</v>
       </c>
       <c r="H40" s="2">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="I40" s="2">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="J40" s="3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="O40" s="2">
-        <v>66.871784</v>
+        <v>67.100373</v>
       </c>
       <c r="P40" s="2">
-        <v>32.407422</v>
+        <v>32.693133</v>
       </c>
       <c r="Q40" s="2">
-        <v>7.7847445111979</v>
+        <v>11.4982269814976</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="T40" s="2">
+        <v>12800</v>
       </c>
       <c r="U40" s="2">
-        <v>66.871784</v>
+        <v>67.130271</v>
       </c>
       <c r="V40" s="2">
-        <v>32.407422</v>
+        <v>32.418253</v>
       </c>
       <c r="W40" s="2">
-        <v>7.7847445111979</v>
+        <v>15.4123552613819</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>92</v>
@@ -6051,25 +6052,25 @@
         <v>32.33363</v>
       </c>
       <c r="AC40" s="2">
-        <v>15.6959842677134</v>
+        <v>13.2051890725244</v>
       </c>
       <c r="AD40" s="2">
-        <v>0.367339447</v>
+        <v>0.102500247</v>
       </c>
       <c r="AE40" s="2">
-        <v>6.492118113</v>
+        <v>6.916565229</v>
       </c>
       <c r="AF40" s="2">
-        <v>0.382347156</v>
+        <v>5.558672383</v>
       </c>
       <c r="AG40" s="2">
-        <v>0.241681869</v>
+        <v>0.464812617</v>
       </c>
       <c r="AH40" s="2">
-        <v>1.870871646</v>
+        <v>3.260637619</v>
       </c>
       <c r="AI40" s="2">
-        <v>1.870871646</v>
+        <v>3.260637619</v>
       </c>
       <c r="AJ40" s="1" t="s">
         <v>47</v>
@@ -6077,73 +6078,73 @@
     </row>
     <row r="41" spans="1:36">
       <c r="A41" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F41" s="2">
-        <v>66.940997</v>
+        <v>67.00683333</v>
       </c>
       <c r="G41" s="2">
-        <v>32.434276</v>
+        <v>32.58006667</v>
       </c>
       <c r="H41" s="2">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="I41" s="2">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="J41" s="3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="O41" s="2">
-        <v>66.871784</v>
+        <v>67.100373</v>
       </c>
       <c r="P41" s="2">
-        <v>32.407422</v>
+        <v>32.693133</v>
       </c>
       <c r="Q41" s="2">
-        <v>7.7847445111979</v>
+        <v>11.4982269814976</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="T41" s="2">
+        <v>12800</v>
       </c>
       <c r="U41" s="2">
-        <v>66.871784</v>
+        <v>67.130271</v>
       </c>
       <c r="V41" s="2">
-        <v>32.407422</v>
+        <v>32.418253</v>
       </c>
       <c r="W41" s="2">
-        <v>7.7847445111979</v>
+        <v>15.4123552613819</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>92</v>
@@ -6161,25 +6162,25 @@
         <v>32.33363</v>
       </c>
       <c r="AC41" s="2">
-        <v>15.6959842677134</v>
+        <v>13.2051890725244</v>
       </c>
       <c r="AD41" s="2">
-        <v>0.367339447</v>
+        <v>0.102500247</v>
       </c>
       <c r="AE41" s="2">
-        <v>6.492118113</v>
+        <v>6.916565229</v>
       </c>
       <c r="AF41" s="2">
-        <v>0.382347156</v>
+        <v>5.558672383</v>
       </c>
       <c r="AG41" s="2">
-        <v>0.241681869</v>
+        <v>0.464812617</v>
       </c>
       <c r="AH41" s="2">
-        <v>1.870871646</v>
+        <v>3.260637619</v>
       </c>
       <c r="AI41" s="2">
-        <v>1.870871646</v>
+        <v>3.260637619</v>
       </c>
       <c r="AJ41" s="1" t="s">
         <v>47</v>
@@ -6187,73 +6188,73 @@
     </row>
     <row r="42" spans="1:36">
       <c r="A42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F42" s="2">
-        <v>66.940997</v>
+        <v>67.00683333</v>
       </c>
       <c r="G42" s="2">
-        <v>32.434276</v>
+        <v>32.58006667</v>
       </c>
       <c r="H42" s="2">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="I42" s="2">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="J42" s="3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="O42" s="2">
-        <v>66.871784</v>
+        <v>67.100373</v>
       </c>
       <c r="P42" s="2">
-        <v>32.407422</v>
+        <v>32.693133</v>
       </c>
       <c r="Q42" s="2">
-        <v>7.7847445111979</v>
+        <v>11.4982269814976</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="T42" s="2">
+        <v>12800</v>
       </c>
       <c r="U42" s="2">
-        <v>66.871784</v>
+        <v>67.130271</v>
       </c>
       <c r="V42" s="2">
-        <v>32.407422</v>
+        <v>32.418253</v>
       </c>
       <c r="W42" s="2">
-        <v>7.7847445111979</v>
+        <v>15.4123552613819</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>92</v>
@@ -6271,39 +6272,39 @@
         <v>32.33363</v>
       </c>
       <c r="AC42" s="2">
-        <v>15.6959842677134</v>
+        <v>13.2051890725244</v>
       </c>
       <c r="AD42" s="2">
-        <v>0.367339447</v>
+        <v>0.102500247</v>
       </c>
       <c r="AE42" s="2">
-        <v>6.492118113</v>
+        <v>6.916565229</v>
       </c>
       <c r="AF42" s="2">
-        <v>0.382347156</v>
+        <v>5.558672383</v>
       </c>
       <c r="AG42" s="2">
-        <v>0.241681869</v>
+        <v>0.464812617</v>
       </c>
       <c r="AH42" s="2">
-        <v>1.870871646</v>
+        <v>3.260637619</v>
       </c>
       <c r="AI42" s="2">
-        <v>1.870871646</v>
+        <v>3.260637619</v>
       </c>
       <c r="AJ42" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" customFormat="1" spans="1:36">
       <c r="A43" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>39</v>
@@ -6312,58 +6313,58 @@
         <v>92</v>
       </c>
       <c r="F43" s="2">
-        <v>66.940997</v>
+        <v>67.00683333</v>
       </c>
       <c r="G43" s="2">
-        <v>32.434276</v>
+        <v>32.58006667</v>
       </c>
       <c r="H43" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I43" s="2">
+        <v>118</v>
+      </c>
+      <c r="J43" s="3">
+        <v>21</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J43" s="3">
-        <v>17</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="O43" s="2">
-        <v>66.871784</v>
+        <v>67.100373</v>
       </c>
       <c r="P43" s="2">
-        <v>32.407422</v>
+        <v>32.693133</v>
       </c>
       <c r="Q43" s="2">
-        <v>7.7847445111979</v>
+        <v>11.4982269814976</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="T43" s="2">
+        <v>12800</v>
       </c>
       <c r="U43" s="2">
-        <v>66.871784</v>
+        <v>67.130271</v>
       </c>
       <c r="V43" s="2">
-        <v>32.407422</v>
+        <v>32.418253</v>
       </c>
       <c r="W43" s="2">
-        <v>7.7847445111979</v>
+        <v>15.4123552613819</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>92</v>
@@ -6381,39 +6382,39 @@
         <v>32.33363</v>
       </c>
       <c r="AC43" s="2">
-        <v>15.6959842677134</v>
+        <v>13.2051890725244</v>
       </c>
       <c r="AD43" s="2">
-        <v>0.367339447</v>
+        <v>0.102500247</v>
       </c>
       <c r="AE43" s="2">
-        <v>6.492118113</v>
+        <v>6.916565229</v>
       </c>
       <c r="AF43" s="2">
-        <v>0.382347156</v>
+        <v>5.558672383</v>
       </c>
       <c r="AG43" s="2">
-        <v>0.241681869</v>
+        <v>0.464812617</v>
       </c>
       <c r="AH43" s="2">
-        <v>1.870871646</v>
+        <v>3.260637619</v>
       </c>
       <c r="AI43" s="2">
-        <v>1.870871646</v>
+        <v>3.260637619</v>
       </c>
       <c r="AJ43" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" customFormat="1" spans="1:36">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>39</v>
@@ -6422,58 +6423,58 @@
         <v>92</v>
       </c>
       <c r="F44" s="2">
-        <v>66.940997</v>
+        <v>67.00683333</v>
       </c>
       <c r="G44" s="2">
-        <v>32.434276</v>
+        <v>32.58006667</v>
       </c>
       <c r="H44" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I44" s="2">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="J44" s="3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="O44" s="2">
-        <v>66.871784</v>
+        <v>67.100373</v>
       </c>
       <c r="P44" s="2">
-        <v>32.407422</v>
+        <v>32.693133</v>
       </c>
       <c r="Q44" s="2">
-        <v>7.7847445111979</v>
+        <v>11.4982269814976</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="T44" s="2">
+        <v>12800</v>
       </c>
       <c r="U44" s="2">
-        <v>66.871784</v>
+        <v>67.130271</v>
       </c>
       <c r="V44" s="2">
-        <v>32.407422</v>
+        <v>32.418253</v>
       </c>
       <c r="W44" s="2">
-        <v>7.7847445111979</v>
+        <v>15.4123552613819</v>
       </c>
       <c r="X44" s="1" t="s">
         <v>92</v>
@@ -6491,25 +6492,25 @@
         <v>32.33363</v>
       </c>
       <c r="AC44" s="2">
-        <v>15.6959842677134</v>
+        <v>13.2051890725244</v>
       </c>
       <c r="AD44" s="2">
-        <v>0.367339447</v>
+        <v>0.102500247</v>
       </c>
       <c r="AE44" s="2">
-        <v>6.492118113</v>
+        <v>6.916565229</v>
       </c>
       <c r="AF44" s="2">
-        <v>0.382347156</v>
+        <v>5.558672383</v>
       </c>
       <c r="AG44" s="2">
-        <v>0.241681869</v>
+        <v>0.464812617</v>
       </c>
       <c r="AH44" s="2">
-        <v>1.870871646</v>
+        <v>3.260637619</v>
       </c>
       <c r="AI44" s="2">
-        <v>1.870871646</v>
+        <v>3.260637619</v>
       </c>
       <c r="AJ44" s="1" t="s">
         <v>47</v>
@@ -6517,13 +6518,13 @@
     </row>
     <row r="45" spans="1:36">
       <c r="A45" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>39</v>
@@ -6538,10 +6539,10 @@
         <v>32.434276</v>
       </c>
       <c r="H45" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I45" s="2">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="J45" s="3">
         <v>17</v>
@@ -6550,7 +6551,7 @@
         <v>92</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>60</v>
@@ -6571,7 +6572,7 @@
         <v>92</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="T45" s="2" t="s">
         <v>60</v>
@@ -6627,13 +6628,13 @@
     </row>
     <row r="46" spans="1:36">
       <c r="A46" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>39</v>
@@ -6642,16 +6643,16 @@
         <v>92</v>
       </c>
       <c r="F46" s="2">
-        <v>66.934989</v>
+        <v>66.940997</v>
       </c>
       <c r="G46" s="2">
-        <v>32.505966</v>
+        <v>32.434276</v>
       </c>
       <c r="H46" s="2">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="I46" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J46" s="3">
         <v>17</v>
@@ -6660,7 +6661,7 @@
         <v>92</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>60</v>
@@ -6675,13 +6676,13 @@
         <v>32.407422</v>
       </c>
       <c r="Q46" s="2">
-        <v>8.23836698874238</v>
+        <v>7.7847445111979</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>92</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="T46" s="2" t="s">
         <v>60</v>
@@ -6693,7 +6694,7 @@
         <v>32.407422</v>
       </c>
       <c r="W46" s="2">
-        <v>8.23836698874238</v>
+        <v>7.7847445111979</v>
       </c>
       <c r="X46" s="1" t="s">
         <v>92</v>
@@ -6711,25 +6712,25 @@
         <v>32.33363</v>
       </c>
       <c r="AC46" s="2">
-        <v>17.4321794233078</v>
+        <v>15.6959842677134</v>
       </c>
       <c r="AD46" s="2">
-        <v>0.094648545</v>
+        <v>0.367339447</v>
       </c>
       <c r="AE46" s="2">
-        <v>0.019378066</v>
+        <v>6.492118113</v>
       </c>
       <c r="AF46" s="2">
-        <v>0.204712437</v>
+        <v>0.382347156</v>
       </c>
       <c r="AG46" s="2">
-        <v>0.981099375</v>
+        <v>0.241681869</v>
       </c>
       <c r="AH46" s="2">
-        <v>0.324959606</v>
+        <v>1.870871646</v>
       </c>
       <c r="AI46" s="2">
-        <v>0.324959606</v>
+        <v>1.870871646</v>
       </c>
       <c r="AJ46" s="1" t="s">
         <v>47</v>
@@ -6737,13 +6738,13 @@
     </row>
     <row r="47" spans="1:36">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>39</v>
@@ -6752,16 +6753,16 @@
         <v>92</v>
       </c>
       <c r="F47" s="2">
-        <v>66.934989</v>
+        <v>66.940997</v>
       </c>
       <c r="G47" s="2">
-        <v>32.505966</v>
+        <v>32.434276</v>
       </c>
       <c r="H47" s="2">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I47" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J47" s="3">
         <v>17</v>
@@ -6770,7 +6771,7 @@
         <v>92</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>60</v>
@@ -6785,13 +6786,13 @@
         <v>32.407422</v>
       </c>
       <c r="Q47" s="2">
-        <v>8.23836698874238</v>
+        <v>7.7847445111979</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>92</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="T47" s="2" t="s">
         <v>60</v>
@@ -6803,7 +6804,7 @@
         <v>32.407422</v>
       </c>
       <c r="W47" s="2">
-        <v>8.23836698874238</v>
+        <v>7.7847445111979</v>
       </c>
       <c r="X47" s="1" t="s">
         <v>92</v>
@@ -6821,25 +6822,25 @@
         <v>32.33363</v>
       </c>
       <c r="AC47" s="2">
-        <v>17.4321794233078</v>
+        <v>15.6959842677134</v>
       </c>
       <c r="AD47" s="2">
-        <v>0.094648545</v>
+        <v>0.367339447</v>
       </c>
       <c r="AE47" s="2">
-        <v>0.019378066</v>
+        <v>6.492118113</v>
       </c>
       <c r="AF47" s="2">
-        <v>0.204712437</v>
+        <v>0.382347156</v>
       </c>
       <c r="AG47" s="2">
-        <v>0.981099375</v>
+        <v>0.241681869</v>
       </c>
       <c r="AH47" s="2">
-        <v>0.324959606</v>
+        <v>1.870871646</v>
       </c>
       <c r="AI47" s="2">
-        <v>0.324959606</v>
+        <v>1.870871646</v>
       </c>
       <c r="AJ47" s="1" t="s">
         <v>47</v>
@@ -6847,13 +6848,13 @@
     </row>
     <row r="48" spans="1:36">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>39</v>
@@ -6862,16 +6863,16 @@
         <v>92</v>
       </c>
       <c r="F48" s="2">
-        <v>66.934989</v>
+        <v>66.940997</v>
       </c>
       <c r="G48" s="2">
-        <v>32.505966</v>
+        <v>32.434276</v>
       </c>
       <c r="H48" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I48" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="J48" s="3">
         <v>17</v>
@@ -6880,7 +6881,7 @@
         <v>92</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>60</v>
@@ -6895,13 +6896,13 @@
         <v>32.407422</v>
       </c>
       <c r="Q48" s="2">
-        <v>8.23836698874238</v>
+        <v>7.7847445111979</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>92</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="T48" s="2" t="s">
         <v>60</v>
@@ -6913,7 +6914,7 @@
         <v>32.407422</v>
       </c>
       <c r="W48" s="2">
-        <v>8.23836698874238</v>
+        <v>7.7847445111979</v>
       </c>
       <c r="X48" s="1" t="s">
         <v>92</v>
@@ -6931,25 +6932,25 @@
         <v>32.33363</v>
       </c>
       <c r="AC48" s="2">
-        <v>17.4321794233078</v>
+        <v>15.6959842677134</v>
       </c>
       <c r="AD48" s="2">
-        <v>0.094648545</v>
+        <v>0.367339447</v>
       </c>
       <c r="AE48" s="2">
-        <v>0.019378066</v>
+        <v>6.492118113</v>
       </c>
       <c r="AF48" s="2">
-        <v>0.204712437</v>
+        <v>0.382347156</v>
       </c>
       <c r="AG48" s="2">
-        <v>0.981099375</v>
+        <v>0.241681869</v>
       </c>
       <c r="AH48" s="2">
-        <v>0.324959606</v>
+        <v>1.870871646</v>
       </c>
       <c r="AI48" s="2">
-        <v>0.324959606</v>
+        <v>1.870871646</v>
       </c>
       <c r="AJ48" s="1" t="s">
         <v>47</v>
@@ -6957,13 +6958,13 @@
     </row>
     <row r="49" spans="1:36">
       <c r="A49" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>39</v>
@@ -6972,16 +6973,16 @@
         <v>92</v>
       </c>
       <c r="F49" s="2">
-        <v>66.934989</v>
+        <v>66.940997</v>
       </c>
       <c r="G49" s="2">
-        <v>32.505966</v>
+        <v>32.434276</v>
       </c>
       <c r="H49" s="2">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="I49" s="2">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J49" s="3">
         <v>17</v>
@@ -6990,7 +6991,7 @@
         <v>92</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>60</v>
@@ -7005,13 +7006,13 @@
         <v>32.407422</v>
       </c>
       <c r="Q49" s="2">
-        <v>8.23836698874238</v>
+        <v>7.7847445111979</v>
       </c>
       <c r="R49" s="1" t="s">
         <v>92</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="T49" s="2" t="s">
         <v>60</v>
@@ -7023,7 +7024,7 @@
         <v>32.407422</v>
       </c>
       <c r="W49" s="2">
-        <v>8.23836698874238</v>
+        <v>7.7847445111979</v>
       </c>
       <c r="X49" s="1" t="s">
         <v>92</v>
@@ -7041,25 +7042,25 @@
         <v>32.33363</v>
       </c>
       <c r="AC49" s="2">
-        <v>17.4321794233078</v>
+        <v>15.6959842677134</v>
       </c>
       <c r="AD49" s="2">
-        <v>0.094648545</v>
+        <v>0.367339447</v>
       </c>
       <c r="AE49" s="2">
-        <v>0.019378066</v>
+        <v>6.492118113</v>
       </c>
       <c r="AF49" s="2">
-        <v>0.204712437</v>
+        <v>0.382347156</v>
       </c>
       <c r="AG49" s="2">
-        <v>0.981099375</v>
+        <v>0.241681869</v>
       </c>
       <c r="AH49" s="2">
-        <v>0.324959606</v>
+        <v>1.870871646</v>
       </c>
       <c r="AI49" s="2">
-        <v>0.324959606</v>
+        <v>1.870871646</v>
       </c>
       <c r="AJ49" s="1" t="s">
         <v>47</v>
@@ -7067,13 +7068,13 @@
     </row>
     <row r="50" spans="1:36">
       <c r="A50" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>39</v>
@@ -7082,16 +7083,16 @@
         <v>92</v>
       </c>
       <c r="F50" s="2">
-        <v>66.934989</v>
+        <v>66.940997</v>
       </c>
       <c r="G50" s="2">
-        <v>32.505966</v>
+        <v>32.434276</v>
       </c>
       <c r="H50" s="2">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I50" s="2">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="J50" s="3">
         <v>17</v>
@@ -7100,7 +7101,7 @@
         <v>92</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>60</v>
@@ -7115,13 +7116,13 @@
         <v>32.407422</v>
       </c>
       <c r="Q50" s="2">
-        <v>8.23836698874238</v>
+        <v>7.7847445111979</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>92</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="T50" s="2" t="s">
         <v>60</v>
@@ -7133,7 +7134,7 @@
         <v>32.407422</v>
       </c>
       <c r="W50" s="2">
-        <v>8.23836698874238</v>
+        <v>7.7847445111979</v>
       </c>
       <c r="X50" s="1" t="s">
         <v>92</v>
@@ -7151,25 +7152,25 @@
         <v>32.33363</v>
       </c>
       <c r="AC50" s="2">
-        <v>17.4321794233078</v>
+        <v>15.6959842677134</v>
       </c>
       <c r="AD50" s="2">
-        <v>0.094648545</v>
+        <v>0.367339447</v>
       </c>
       <c r="AE50" s="2">
-        <v>0.019378066</v>
+        <v>6.492118113</v>
       </c>
       <c r="AF50" s="2">
-        <v>0.204712437</v>
+        <v>0.382347156</v>
       </c>
       <c r="AG50" s="2">
-        <v>0.981099375</v>
+        <v>0.241681869</v>
       </c>
       <c r="AH50" s="2">
-        <v>0.324959606</v>
+        <v>1.870871646</v>
       </c>
       <c r="AI50" s="2">
-        <v>0.324959606</v>
+        <v>1.870871646</v>
       </c>
       <c r="AJ50" s="1" t="s">
         <v>47</v>
@@ -7177,7 +7178,7 @@
     </row>
     <row r="51" spans="1:36">
       <c r="A51" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>37</v>
@@ -7198,10 +7199,10 @@
         <v>32.505966</v>
       </c>
       <c r="H51" s="2">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I51" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J51" s="3">
         <v>17</v>
@@ -7210,7 +7211,7 @@
         <v>92</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>60</v>
@@ -7231,7 +7232,7 @@
         <v>92</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="T51" s="2" t="s">
         <v>60</v>
@@ -7287,13 +7288,13 @@
     </row>
     <row r="52" spans="1:36">
       <c r="A52" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>39</v>
@@ -7302,16 +7303,16 @@
         <v>92</v>
       </c>
       <c r="F52" s="2">
-        <v>66.928172</v>
+        <v>66.934989</v>
       </c>
       <c r="G52" s="2">
-        <v>32.491289</v>
+        <v>32.505966</v>
       </c>
       <c r="H52" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I52" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J52" s="3">
         <v>17</v>
@@ -7320,7 +7321,7 @@
         <v>92</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>60</v>
@@ -7335,13 +7336,13 @@
         <v>32.407422</v>
       </c>
       <c r="Q52" s="2">
-        <v>7.25949517353554</v>
+        <v>8.23836698874238</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>92</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="T52" s="2" t="s">
         <v>60</v>
@@ -7353,7 +7354,7 @@
         <v>32.407422</v>
       </c>
       <c r="W52" s="2">
-        <v>7.25949517353554</v>
+        <v>8.23836698874238</v>
       </c>
       <c r="X52" s="1" t="s">
         <v>92</v>
@@ -7371,25 +7372,25 @@
         <v>32.33363</v>
       </c>
       <c r="AC52" s="2">
-        <v>17.8660968088113</v>
+        <v>17.4321794233078</v>
       </c>
       <c r="AD52" s="2">
-        <v>1.007568419</v>
+        <v>0.094648545</v>
       </c>
       <c r="AE52" s="2">
-        <v>30.34921264</v>
+        <v>0.019378066</v>
       </c>
       <c r="AF52" s="2">
-        <v>4.466253586</v>
+        <v>0.204712437</v>
       </c>
       <c r="AG52" s="2">
-        <v>0.222793327</v>
+        <v>0.981099375</v>
       </c>
       <c r="AH52" s="2">
-        <v>9.011456992</v>
+        <v>0.324959606</v>
       </c>
       <c r="AI52" s="2">
-        <v>9.011456992</v>
+        <v>0.324959606</v>
       </c>
       <c r="AJ52" s="1" t="s">
         <v>47</v>
@@ -7397,13 +7398,13 @@
     </row>
     <row r="53" spans="1:36">
       <c r="A53" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>39</v>
@@ -7412,16 +7413,16 @@
         <v>92</v>
       </c>
       <c r="F53" s="2">
-        <v>66.928172</v>
+        <v>66.934989</v>
       </c>
       <c r="G53" s="2">
-        <v>32.491289</v>
+        <v>32.505966</v>
       </c>
       <c r="H53" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I53" s="2">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="J53" s="3">
         <v>17</v>
@@ -7430,7 +7431,7 @@
         <v>92</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>60</v>
@@ -7445,13 +7446,13 @@
         <v>32.407422</v>
       </c>
       <c r="Q53" s="2">
-        <v>7.25949517353554</v>
+        <v>8.23836698874238</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>92</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="T53" s="2" t="s">
         <v>60</v>
@@ -7463,7 +7464,7 @@
         <v>32.407422</v>
       </c>
       <c r="W53" s="2">
-        <v>7.25949517353554</v>
+        <v>8.23836698874238</v>
       </c>
       <c r="X53" s="1" t="s">
         <v>92</v>
@@ -7481,25 +7482,25 @@
         <v>32.33363</v>
       </c>
       <c r="AC53" s="2">
-        <v>17.8660968088113</v>
+        <v>17.4321794233078</v>
       </c>
       <c r="AD53" s="2">
-        <v>1.007568419</v>
+        <v>0.094648545</v>
       </c>
       <c r="AE53" s="2">
-        <v>30.34921264</v>
+        <v>0.019378066</v>
       </c>
       <c r="AF53" s="2">
-        <v>4.466253586</v>
+        <v>0.204712437</v>
       </c>
       <c r="AG53" s="2">
-        <v>0.222793327</v>
+        <v>0.981099375</v>
       </c>
       <c r="AH53" s="2">
-        <v>9.011456992</v>
+        <v>0.324959606</v>
       </c>
       <c r="AI53" s="2">
-        <v>9.011456992</v>
+        <v>0.324959606</v>
       </c>
       <c r="AJ53" s="1" t="s">
         <v>47</v>
@@ -7507,13 +7508,13 @@
     </row>
     <row r="54" spans="1:36">
       <c r="A54" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>39</v>
@@ -7522,16 +7523,16 @@
         <v>92</v>
       </c>
       <c r="F54" s="2">
-        <v>66.928172</v>
+        <v>66.934989</v>
       </c>
       <c r="G54" s="2">
-        <v>32.491289</v>
+        <v>32.505966</v>
       </c>
       <c r="H54" s="2">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I54" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J54" s="3">
         <v>17</v>
@@ -7540,7 +7541,7 @@
         <v>92</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>60</v>
@@ -7555,13 +7556,13 @@
         <v>32.407422</v>
       </c>
       <c r="Q54" s="2">
-        <v>7.25949517353554</v>
+        <v>8.23836698874238</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>92</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="T54" s="2" t="s">
         <v>60</v>
@@ -7573,7 +7574,7 @@
         <v>32.407422</v>
       </c>
       <c r="W54" s="2">
-        <v>7.25949517353554</v>
+        <v>8.23836698874238</v>
       </c>
       <c r="X54" s="1" t="s">
         <v>92</v>
@@ -7591,25 +7592,25 @@
         <v>32.33363</v>
       </c>
       <c r="AC54" s="2">
-        <v>17.8660968088113</v>
+        <v>17.4321794233078</v>
       </c>
       <c r="AD54" s="2">
-        <v>1.007568419</v>
+        <v>0.094648545</v>
       </c>
       <c r="AE54" s="2">
-        <v>30.34921264</v>
+        <v>0.019378066</v>
       </c>
       <c r="AF54" s="2">
-        <v>4.466253586</v>
+        <v>0.204712437</v>
       </c>
       <c r="AG54" s="2">
-        <v>0.222793327</v>
+        <v>0.981099375</v>
       </c>
       <c r="AH54" s="2">
-        <v>9.011456992</v>
+        <v>0.324959606</v>
       </c>
       <c r="AI54" s="2">
-        <v>9.011456992</v>
+        <v>0.324959606</v>
       </c>
       <c r="AJ54" s="1" t="s">
         <v>47</v>
@@ -7617,13 +7618,13 @@
     </row>
     <row r="55" spans="1:36">
       <c r="A55" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>39</v>
@@ -7632,16 +7633,16 @@
         <v>92</v>
       </c>
       <c r="F55" s="2">
-        <v>66.928172</v>
+        <v>66.934989</v>
       </c>
       <c r="G55" s="2">
-        <v>32.491289</v>
+        <v>32.505966</v>
       </c>
       <c r="H55" s="2">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="I55" s="2">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="J55" s="3">
         <v>17</v>
@@ -7650,7 +7651,7 @@
         <v>92</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>60</v>
@@ -7665,13 +7666,13 @@
         <v>32.407422</v>
       </c>
       <c r="Q55" s="2">
-        <v>7.25949517353554</v>
+        <v>8.23836698874238</v>
       </c>
       <c r="R55" s="1" t="s">
         <v>92</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="T55" s="2" t="s">
         <v>60</v>
@@ -7683,7 +7684,7 @@
         <v>32.407422</v>
       </c>
       <c r="W55" s="2">
-        <v>7.25949517353554</v>
+        <v>8.23836698874238</v>
       </c>
       <c r="X55" s="1" t="s">
         <v>92</v>
@@ -7701,25 +7702,25 @@
         <v>32.33363</v>
       </c>
       <c r="AC55" s="2">
-        <v>17.8660968088113</v>
+        <v>17.4321794233078</v>
       </c>
       <c r="AD55" s="2">
-        <v>1.007568419</v>
+        <v>0.094648545</v>
       </c>
       <c r="AE55" s="2">
-        <v>30.34921264</v>
+        <v>0.019378066</v>
       </c>
       <c r="AF55" s="2">
-        <v>4.466253586</v>
+        <v>0.204712437</v>
       </c>
       <c r="AG55" s="2">
-        <v>0.222793327</v>
+        <v>0.981099375</v>
       </c>
       <c r="AH55" s="2">
-        <v>9.011456992</v>
+        <v>0.324959606</v>
       </c>
       <c r="AI55" s="2">
-        <v>9.011456992</v>
+        <v>0.324959606</v>
       </c>
       <c r="AJ55" s="1" t="s">
         <v>47</v>
@@ -7727,13 +7728,13 @@
     </row>
     <row r="56" spans="1:36">
       <c r="A56" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>39</v>
@@ -7742,16 +7743,16 @@
         <v>92</v>
       </c>
       <c r="F56" s="2">
-        <v>66.928172</v>
+        <v>66.934989</v>
       </c>
       <c r="G56" s="2">
-        <v>32.491289</v>
+        <v>32.505966</v>
       </c>
       <c r="H56" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I56" s="2">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="J56" s="3">
         <v>17</v>
@@ -7760,7 +7761,7 @@
         <v>92</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>60</v>
@@ -7775,13 +7776,13 @@
         <v>32.407422</v>
       </c>
       <c r="Q56" s="2">
-        <v>7.25949517353554</v>
+        <v>8.23836698874238</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>92</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="T56" s="2" t="s">
         <v>60</v>
@@ -7793,7 +7794,7 @@
         <v>32.407422</v>
       </c>
       <c r="W56" s="2">
-        <v>7.25949517353554</v>
+        <v>8.23836698874238</v>
       </c>
       <c r="X56" s="1" t="s">
         <v>92</v>
@@ -7811,25 +7812,25 @@
         <v>32.33363</v>
       </c>
       <c r="AC56" s="2">
-        <v>17.8660968088113</v>
+        <v>17.4321794233078</v>
       </c>
       <c r="AD56" s="2">
-        <v>1.007568419</v>
+        <v>0.094648545</v>
       </c>
       <c r="AE56" s="2">
-        <v>30.34921264</v>
+        <v>0.019378066</v>
       </c>
       <c r="AF56" s="2">
-        <v>4.466253586</v>
+        <v>0.204712437</v>
       </c>
       <c r="AG56" s="2">
-        <v>0.222793327</v>
+        <v>0.981099375</v>
       </c>
       <c r="AH56" s="2">
-        <v>9.011456992</v>
+        <v>0.324959606</v>
       </c>
       <c r="AI56" s="2">
-        <v>9.011456992</v>
+        <v>0.324959606</v>
       </c>
       <c r="AJ56" s="1" t="s">
         <v>47</v>
@@ -7837,7 +7838,7 @@
     </row>
     <row r="57" spans="1:36">
       <c r="A57" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>37</v>
@@ -7858,10 +7859,10 @@
         <v>32.491289</v>
       </c>
       <c r="H57" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I57" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="J57" s="3">
         <v>17</v>
@@ -7870,7 +7871,7 @@
         <v>92</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>60</v>
@@ -7891,7 +7892,7 @@
         <v>92</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="T57" s="2" t="s">
         <v>60</v>
@@ -7947,73 +7948,73 @@
     </row>
     <row r="58" spans="1:36">
       <c r="A58" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F58" s="2">
-        <v>67.00746</v>
+        <v>66.928172</v>
       </c>
       <c r="G58" s="2">
-        <v>32.571504</v>
+        <v>32.491289</v>
       </c>
       <c r="H58" s="2">
-        <v>264</v>
+        <v>23</v>
       </c>
       <c r="I58" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="J58" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O58" s="2">
-        <v>67.100373</v>
+        <v>66.871784</v>
       </c>
       <c r="P58" s="2">
-        <v>32.693133</v>
+        <v>32.407422</v>
       </c>
       <c r="Q58" s="2">
-        <v>11.5991628873516</v>
+        <v>7.25949517353554</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T58" s="2">
-        <v>12800</v>
+        <v>106</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="U58" s="2">
-        <v>67.130271</v>
+        <v>66.871784</v>
       </c>
       <c r="V58" s="2">
-        <v>32.418253</v>
+        <v>32.407422</v>
       </c>
       <c r="W58" s="2">
-        <v>15.1844561762457</v>
+        <v>7.25949517353554</v>
       </c>
       <c r="X58" s="1" t="s">
         <v>92</v>
@@ -8031,25 +8032,25 @@
         <v>32.33363</v>
       </c>
       <c r="AC58" s="2">
-        <v>12.8645697348244</v>
+        <v>17.8660968088113</v>
       </c>
       <c r="AD58" s="2">
-        <v>0.313845367</v>
+        <v>1.007568419</v>
       </c>
       <c r="AE58" s="2">
-        <v>4.606018407</v>
+        <v>30.34921264</v>
       </c>
       <c r="AF58" s="2">
-        <v>2.511443364</v>
+        <v>4.466253586</v>
       </c>
       <c r="AG58" s="2">
-        <v>0.0879983</v>
+        <v>0.222793327</v>
       </c>
       <c r="AH58" s="2">
-        <v>1.879826359</v>
+        <v>9.011456992</v>
       </c>
       <c r="AI58" s="2">
-        <v>1.879826359</v>
+        <v>9.011456992</v>
       </c>
       <c r="AJ58" s="1" t="s">
         <v>47</v>
@@ -8057,73 +8058,73 @@
     </row>
     <row r="59" spans="1:36">
       <c r="A59" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F59" s="2">
-        <v>67.00746</v>
+        <v>66.928172</v>
       </c>
       <c r="G59" s="2">
-        <v>32.571504</v>
+        <v>32.491289</v>
       </c>
       <c r="H59" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I59" s="2">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J59" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O59" s="2">
-        <v>67.100373</v>
+        <v>66.871784</v>
       </c>
       <c r="P59" s="2">
-        <v>32.693133</v>
+        <v>32.407422</v>
       </c>
       <c r="Q59" s="2">
-        <v>11.5991628873516</v>
+        <v>7.25949517353554</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T59" s="2">
-        <v>12800</v>
+        <v>106</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="U59" s="2">
-        <v>67.130271</v>
+        <v>66.871784</v>
       </c>
       <c r="V59" s="2">
-        <v>32.418253</v>
+        <v>32.407422</v>
       </c>
       <c r="W59" s="2">
-        <v>15.1844561762457</v>
+        <v>7.25949517353554</v>
       </c>
       <c r="X59" s="1" t="s">
         <v>92</v>
@@ -8141,25 +8142,25 @@
         <v>32.33363</v>
       </c>
       <c r="AC59" s="2">
-        <v>12.8645697348244</v>
+        <v>17.8660968088113</v>
       </c>
       <c r="AD59" s="2">
-        <v>0.313845367</v>
+        <v>1.007568419</v>
       </c>
       <c r="AE59" s="2">
-        <v>4.606018407</v>
+        <v>30.34921264</v>
       </c>
       <c r="AF59" s="2">
-        <v>2.511443364</v>
+        <v>4.466253586</v>
       </c>
       <c r="AG59" s="2">
-        <v>0.0879983</v>
+        <v>0.222793327</v>
       </c>
       <c r="AH59" s="2">
-        <v>1.879826359</v>
+        <v>9.011456992</v>
       </c>
       <c r="AI59" s="2">
-        <v>1.879826359</v>
+        <v>9.011456992</v>
       </c>
       <c r="AJ59" s="1" t="s">
         <v>47</v>
@@ -8167,73 +8168,73 @@
     </row>
     <row r="60" spans="1:36">
       <c r="A60" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F60" s="2">
-        <v>67.00746</v>
+        <v>66.928172</v>
       </c>
       <c r="G60" s="2">
-        <v>32.571504</v>
+        <v>32.491289</v>
       </c>
       <c r="H60" s="2">
+        <v>3</v>
+      </c>
+      <c r="I60" s="2">
+        <v>41</v>
+      </c>
+      <c r="J60" s="3">
+        <v>17</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I60" s="2">
-        <v>52</v>
-      </c>
-      <c r="J60" s="3">
-        <v>20</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="N60" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O60" s="2">
-        <v>67.100373</v>
+        <v>66.871784</v>
       </c>
       <c r="P60" s="2">
-        <v>32.693133</v>
+        <v>32.407422</v>
       </c>
       <c r="Q60" s="2">
-        <v>11.5991628873516</v>
+        <v>7.25949517353554</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T60" s="2">
-        <v>12800</v>
+        <v>106</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="U60" s="2">
-        <v>67.130271</v>
+        <v>66.871784</v>
       </c>
       <c r="V60" s="2">
-        <v>32.418253</v>
+        <v>32.407422</v>
       </c>
       <c r="W60" s="2">
-        <v>15.1844561762457</v>
+        <v>7.25949517353554</v>
       </c>
       <c r="X60" s="1" t="s">
         <v>92</v>
@@ -8251,39 +8252,39 @@
         <v>32.33363</v>
       </c>
       <c r="AC60" s="2">
-        <v>12.8645697348244</v>
+        <v>17.8660968088113</v>
       </c>
       <c r="AD60" s="2">
-        <v>0.313845367</v>
+        <v>1.007568419</v>
       </c>
       <c r="AE60" s="2">
-        <v>4.606018407</v>
+        <v>30.34921264</v>
       </c>
       <c r="AF60" s="2">
-        <v>2.511443364</v>
+        <v>4.466253586</v>
       </c>
       <c r="AG60" s="2">
-        <v>0.0879983</v>
+        <v>0.222793327</v>
       </c>
       <c r="AH60" s="2">
-        <v>1.879826359</v>
+        <v>9.011456992</v>
       </c>
       <c r="AI60" s="2">
-        <v>1.879826359</v>
+        <v>9.011456992</v>
       </c>
       <c r="AJ60" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" customFormat="1" spans="1:36">
+    <row r="61" spans="1:36">
       <c r="A61" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>39</v>
@@ -8292,58 +8293,58 @@
         <v>92</v>
       </c>
       <c r="F61" s="2">
-        <v>67.00746</v>
+        <v>66.928172</v>
       </c>
       <c r="G61" s="2">
-        <v>32.571504</v>
+        <v>32.491289</v>
       </c>
       <c r="H61" s="2">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I61" s="2">
-        <v>413</v>
+        <v>48</v>
       </c>
       <c r="J61" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O61" s="2">
-        <v>67.100373</v>
+        <v>66.871784</v>
       </c>
       <c r="P61" s="2">
-        <v>32.693133</v>
+        <v>32.407422</v>
       </c>
       <c r="Q61" s="2">
-        <v>11.5991628873516</v>
+        <v>7.25949517353554</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T61" s="2">
-        <v>12800</v>
+        <v>106</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="U61" s="2">
-        <v>67.130271</v>
+        <v>66.871784</v>
       </c>
       <c r="V61" s="2">
-        <v>32.418253</v>
+        <v>32.407422</v>
       </c>
       <c r="W61" s="2">
-        <v>15.1844561762457</v>
+        <v>7.25949517353554</v>
       </c>
       <c r="X61" s="1" t="s">
         <v>92</v>
@@ -8361,39 +8362,39 @@
         <v>32.33363</v>
       </c>
       <c r="AC61" s="2">
-        <v>12.8645697348244</v>
+        <v>17.8660968088113</v>
       </c>
       <c r="AD61" s="2">
-        <v>0.313845367</v>
+        <v>1.007568419</v>
       </c>
       <c r="AE61" s="2">
-        <v>4.606018407</v>
+        <v>30.34921264</v>
       </c>
       <c r="AF61" s="2">
-        <v>2.511443364</v>
+        <v>4.466253586</v>
       </c>
       <c r="AG61" s="2">
-        <v>0.0879983</v>
+        <v>0.222793327</v>
       </c>
       <c r="AH61" s="2">
-        <v>1.879826359</v>
+        <v>9.011456992</v>
       </c>
       <c r="AI61" s="2">
-        <v>1.879826359</v>
+        <v>9.011456992</v>
       </c>
       <c r="AJ61" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" customFormat="1" spans="1:36">
+    <row r="62" spans="1:36">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>39</v>
@@ -8402,58 +8403,58 @@
         <v>92</v>
       </c>
       <c r="F62" s="2">
-        <v>67.00746</v>
+        <v>66.928172</v>
       </c>
       <c r="G62" s="2">
-        <v>32.571504</v>
+        <v>32.491289</v>
       </c>
       <c r="H62" s="2">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I62" s="2">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c r="J62" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O62" s="2">
-        <v>67.100373</v>
+        <v>66.871784</v>
       </c>
       <c r="P62" s="2">
-        <v>32.693133</v>
+        <v>32.407422</v>
       </c>
       <c r="Q62" s="2">
-        <v>11.5991628873516</v>
+        <v>7.25949517353554</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T62" s="2">
-        <v>12800</v>
+        <v>106</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="U62" s="2">
-        <v>67.130271</v>
+        <v>66.871784</v>
       </c>
       <c r="V62" s="2">
-        <v>32.418253</v>
+        <v>32.407422</v>
       </c>
       <c r="W62" s="2">
-        <v>15.1844561762457</v>
+        <v>7.25949517353554</v>
       </c>
       <c r="X62" s="1" t="s">
         <v>92</v>
@@ -8471,32 +8472,582 @@
         <v>32.33363</v>
       </c>
       <c r="AC62" s="2">
-        <v>12.8645697348244</v>
+        <v>17.8660968088113</v>
       </c>
       <c r="AD62" s="2">
-        <v>0.313845367</v>
+        <v>1.007568419</v>
       </c>
       <c r="AE62" s="2">
-        <v>4.606018407</v>
+        <v>30.34921264</v>
       </c>
       <c r="AF62" s="2">
-        <v>2.511443364</v>
+        <v>4.466253586</v>
       </c>
       <c r="AG62" s="2">
-        <v>0.0879983</v>
+        <v>0.222793327</v>
       </c>
       <c r="AH62" s="2">
-        <v>1.879826359</v>
+        <v>9.011456992</v>
       </c>
       <c r="AI62" s="2">
-        <v>1.879826359</v>
+        <v>9.011456992</v>
       </c>
       <c r="AJ62" s="1" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="63" spans="1:36">
+      <c r="A63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" s="2">
+        <v>67.00746</v>
+      </c>
+      <c r="G63" s="2">
+        <v>32.571504</v>
+      </c>
+      <c r="H63" s="2">
+        <v>264</v>
+      </c>
+      <c r="I63" s="2">
+        <v>90</v>
+      </c>
+      <c r="J63" s="3">
+        <v>20</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O63" s="2">
+        <v>67.100373</v>
+      </c>
+      <c r="P63" s="2">
+        <v>32.693133</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>11.5991628873516</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T63" s="2">
+        <v>12800</v>
+      </c>
+      <c r="U63" s="2">
+        <v>67.130271</v>
+      </c>
+      <c r="V63" s="2">
+        <v>32.418253</v>
+      </c>
+      <c r="W63" s="2">
+        <v>15.1844561762457</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>67.07657</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>32.33363</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>12.8645697348244</v>
+      </c>
+      <c r="AD63" s="2">
+        <v>0.313845367</v>
+      </c>
+      <c r="AE63" s="2">
+        <v>4.606018407</v>
+      </c>
+      <c r="AF63" s="2">
+        <v>2.511443364</v>
+      </c>
+      <c r="AG63" s="2">
+        <v>0.0879983</v>
+      </c>
+      <c r="AH63" s="2">
+        <v>1.879826359</v>
+      </c>
+      <c r="AI63" s="2">
+        <v>1.879826359</v>
+      </c>
+      <c r="AJ63" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36">
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" s="2">
+        <v>67.00746</v>
+      </c>
+      <c r="G64" s="2">
+        <v>32.571504</v>
+      </c>
+      <c r="H64" s="2">
+        <v>33</v>
+      </c>
+      <c r="I64" s="2">
+        <v>69</v>
+      </c>
+      <c r="J64" s="3">
+        <v>20</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O64" s="2">
+        <v>67.100373</v>
+      </c>
+      <c r="P64" s="2">
+        <v>32.693133</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>11.5991628873516</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T64" s="2">
+        <v>12800</v>
+      </c>
+      <c r="U64" s="2">
+        <v>67.130271</v>
+      </c>
+      <c r="V64" s="2">
+        <v>32.418253</v>
+      </c>
+      <c r="W64" s="2">
+        <v>15.1844561762457</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>67.07657</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>32.33363</v>
+      </c>
+      <c r="AC64" s="2">
+        <v>12.8645697348244</v>
+      </c>
+      <c r="AD64" s="2">
+        <v>0.313845367</v>
+      </c>
+      <c r="AE64" s="2">
+        <v>4.606018407</v>
+      </c>
+      <c r="AF64" s="2">
+        <v>2.511443364</v>
+      </c>
+      <c r="AG64" s="2">
+        <v>0.0879983</v>
+      </c>
+      <c r="AH64" s="2">
+        <v>1.879826359</v>
+      </c>
+      <c r="AI64" s="2">
+        <v>1.879826359</v>
+      </c>
+      <c r="AJ64" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36">
+      <c r="A65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" s="2">
+        <v>67.00746</v>
+      </c>
+      <c r="G65" s="2">
+        <v>32.571504</v>
+      </c>
+      <c r="H65" s="2">
+        <v>60</v>
+      </c>
+      <c r="I65" s="2">
+        <v>52</v>
+      </c>
+      <c r="J65" s="3">
+        <v>20</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O65" s="2">
+        <v>67.100373</v>
+      </c>
+      <c r="P65" s="2">
+        <v>32.693133</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>11.5991628873516</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T65" s="2">
+        <v>12800</v>
+      </c>
+      <c r="U65" s="2">
+        <v>67.130271</v>
+      </c>
+      <c r="V65" s="2">
+        <v>32.418253</v>
+      </c>
+      <c r="W65" s="2">
+        <v>15.1844561762457</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>67.07657</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>32.33363</v>
+      </c>
+      <c r="AC65" s="2">
+        <v>12.8645697348244</v>
+      </c>
+      <c r="AD65" s="2">
+        <v>0.313845367</v>
+      </c>
+      <c r="AE65" s="2">
+        <v>4.606018407</v>
+      </c>
+      <c r="AF65" s="2">
+        <v>2.511443364</v>
+      </c>
+      <c r="AG65" s="2">
+        <v>0.0879983</v>
+      </c>
+      <c r="AH65" s="2">
+        <v>1.879826359</v>
+      </c>
+      <c r="AI65" s="2">
+        <v>1.879826359</v>
+      </c>
+      <c r="AJ65" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:36">
+      <c r="A66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="2">
+        <v>67.00746</v>
+      </c>
+      <c r="G66" s="2">
+        <v>32.571504</v>
+      </c>
+      <c r="H66" s="2">
+        <v>37</v>
+      </c>
+      <c r="I66" s="2">
+        <v>413</v>
+      </c>
+      <c r="J66" s="3">
+        <v>20</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O66" s="2">
+        <v>67.100373</v>
+      </c>
+      <c r="P66" s="2">
+        <v>32.693133</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>11.5991628873516</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T66" s="2">
+        <v>12800</v>
+      </c>
+      <c r="U66" s="2">
+        <v>67.130271</v>
+      </c>
+      <c r="V66" s="2">
+        <v>32.418253</v>
+      </c>
+      <c r="W66" s="2">
+        <v>15.1844561762457</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>67.07657</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>32.33363</v>
+      </c>
+      <c r="AC66" s="2">
+        <v>12.8645697348244</v>
+      </c>
+      <c r="AD66" s="2">
+        <v>0.313845367</v>
+      </c>
+      <c r="AE66" s="2">
+        <v>4.606018407</v>
+      </c>
+      <c r="AF66" s="2">
+        <v>2.511443364</v>
+      </c>
+      <c r="AG66" s="2">
+        <v>0.0879983</v>
+      </c>
+      <c r="AH66" s="2">
+        <v>1.879826359</v>
+      </c>
+      <c r="AI66" s="2">
+        <v>1.879826359</v>
+      </c>
+      <c r="AJ66" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:36">
+      <c r="A67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67" s="2">
+        <v>67.00746</v>
+      </c>
+      <c r="G67" s="2">
+        <v>32.571504</v>
+      </c>
+      <c r="H67" s="2">
+        <v>25</v>
+      </c>
+      <c r="I67" s="2">
+        <v>246</v>
+      </c>
+      <c r="J67" s="3">
+        <v>20</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O67" s="2">
+        <v>67.100373</v>
+      </c>
+      <c r="P67" s="2">
+        <v>32.693133</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>11.5991628873516</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T67" s="2">
+        <v>12800</v>
+      </c>
+      <c r="U67" s="2">
+        <v>67.130271</v>
+      </c>
+      <c r="V67" s="2">
+        <v>32.418253</v>
+      </c>
+      <c r="W67" s="2">
+        <v>15.1844561762457</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>67.07657</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>32.33363</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>12.8645697348244</v>
+      </c>
+      <c r="AD67" s="2">
+        <v>0.313845367</v>
+      </c>
+      <c r="AE67" s="2">
+        <v>4.606018407</v>
+      </c>
+      <c r="AF67" s="2">
+        <v>2.511443364</v>
+      </c>
+      <c r="AG67" s="2">
+        <v>0.0879983</v>
+      </c>
+      <c r="AH67" s="2">
+        <v>1.879826359</v>
+      </c>
+      <c r="AI67" s="2">
+        <v>1.879826359</v>
+      </c>
+      <c r="AJ67" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ60">
+  <autoFilter ref="A1:AJ67">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8507,10 +9058,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8629,119 +9180,230 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" customFormat="1"/>
-    <row r="3" spans="1:35">
+    <row r="2" spans="1:35">
+      <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2">
+        <v>66.671221</v>
+      </c>
+      <c r="G2" s="2">
+        <v>34.32914</v>
+      </c>
+      <c r="H2" s="2">
+        <v>48</v>
+      </c>
+      <c r="I2" s="2">
+        <v>63</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="2">
+        <v>66.664609</v>
+      </c>
+      <c r="P2" s="2">
+        <v>34.297657</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.56937852440207</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T2" s="2">
+        <v>6250</v>
+      </c>
+      <c r="U2" s="2">
+        <v>66.664609</v>
+      </c>
+      <c r="V2" s="2">
+        <v>34.297657</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1.56937852440207</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>66.67797</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>34.357655</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>1.46265269118773</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.556560112</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.038479477</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.419161049</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.298976198</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.328294209</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2">
-        <v>67.02585</v>
+        <v>67.156537</v>
       </c>
       <c r="G3" s="2">
-        <v>32.5385</v>
+        <v>32.369881</v>
       </c>
       <c r="H3" s="2">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2">
-        <v>188</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>128</v>
+        <v>7</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O3" s="2">
-        <v>67.100373</v>
+        <v>67.156763</v>
       </c>
       <c r="P3" s="2">
-        <v>32.693133</v>
+        <v>32.37713</v>
       </c>
       <c r="Q3" s="2">
-        <v>10.656923145946</v>
+        <v>0.313927302861054</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="2">
-        <v>12800</v>
+        <v>59</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="U3" s="2">
-        <v>67.130271</v>
+        <v>67.156763</v>
       </c>
       <c r="V3" s="2">
-        <v>32.418253</v>
+        <v>32.37713</v>
       </c>
       <c r="W3" s="2">
-        <v>12.7254328226789</v>
+        <v>0.313927302861054</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AA3" s="2">
-        <v>67.07657</v>
+        <v>67.137283</v>
       </c>
       <c r="AB3" s="2">
-        <v>32.33363</v>
+        <v>32.407995</v>
       </c>
       <c r="AC3" s="2">
-        <v>10.521531504242</v>
+        <v>2.70051510029029</v>
       </c>
       <c r="AD3" s="2">
-        <v>5.007510109</v>
+        <v>0.062850151</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.146991378</v>
+        <v>0.575132943</v>
       </c>
       <c r="AF3" s="2">
-        <v>0.020426425</v>
+        <v>7.028693041</v>
       </c>
       <c r="AG3" s="2">
-        <v>0.004489863</v>
+        <v>1.484717637</v>
       </c>
       <c r="AH3" s="2">
-        <v>1.294854444</v>
-      </c>
-      <c r="AI3" s="1" t="s">
+        <v>2.287848443</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>2.287848443</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>39</v>
@@ -8750,40 +9412,40 @@
         <v>92</v>
       </c>
       <c r="F4" s="2">
-        <v>67.02585</v>
+        <v>67.09485</v>
       </c>
       <c r="G4" s="2">
-        <v>32.5385</v>
+        <v>32.34515</v>
       </c>
       <c r="H4" s="2">
         <v>30</v>
       </c>
       <c r="I4" s="2">
-        <v>103</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>8</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O4" s="2">
-        <v>67.100373</v>
+        <v>67.130271</v>
       </c>
       <c r="P4" s="2">
-        <v>32.693133</v>
+        <v>32.418253</v>
       </c>
       <c r="Q4" s="2">
-        <v>10.656923145946</v>
+        <v>5.05048922328658</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>40</v>
@@ -8801,7 +9463,7 @@
         <v>32.418253</v>
       </c>
       <c r="W4" s="2">
-        <v>12.7254328226789</v>
+        <v>5.05048922328658</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>92</v>
@@ -8819,244 +9481,259 @@
         <v>32.33363</v>
       </c>
       <c r="AC4" s="2">
-        <v>10.521531504242</v>
+        <v>2.09293784384179</v>
       </c>
       <c r="AD4" s="2">
-        <v>5.007510109</v>
+        <v>0.182730924</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.146991378</v>
+        <v>0.777022405</v>
       </c>
       <c r="AF4" s="2">
-        <v>0.020426425</v>
+        <v>4.921400671</v>
       </c>
       <c r="AG4" s="2">
-        <v>0.004489863</v>
+        <v>13.01161237</v>
       </c>
       <c r="AH4" s="2">
-        <v>1.294854444</v>
-      </c>
-      <c r="AI4" s="1" t="s">
+        <v>4.723191593</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>4.723191593</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2">
-        <v>67.02585</v>
+        <v>66.701026</v>
       </c>
       <c r="G5" s="2">
-        <v>32.5385</v>
+        <v>34.238944</v>
       </c>
       <c r="H5" s="2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>124</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="J5" s="3">
+        <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O5" s="2">
-        <v>67.100373</v>
+        <v>66.664609</v>
       </c>
       <c r="P5" s="2">
-        <v>32.693133</v>
+        <v>34.297657</v>
       </c>
       <c r="Q5" s="2">
-        <v>10.656923145946</v>
+        <v>4.80368183749213</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="T5" s="2">
-        <v>12800</v>
+        <v>6250</v>
       </c>
       <c r="U5" s="2">
-        <v>67.130271</v>
+        <v>66.664609</v>
       </c>
       <c r="V5" s="2">
-        <v>32.418253</v>
+        <v>34.297657</v>
       </c>
       <c r="W5" s="2">
-        <v>12.7254328226789</v>
+        <v>4.80368183749213</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="AA5" s="2">
-        <v>67.07657</v>
+        <v>66.67797</v>
       </c>
       <c r="AB5" s="2">
-        <v>32.33363</v>
+        <v>34.357655</v>
       </c>
       <c r="AC5" s="2">
-        <v>10.521531504242</v>
+        <v>5.81867616932993</v>
       </c>
       <c r="AD5" s="2">
-        <v>5.007510109</v>
+        <v>0.381958961</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.146991378</v>
+        <v>0.189717446</v>
       </c>
       <c r="AF5" s="2">
-        <v>0.020426425</v>
+        <v>0.736391757</v>
       </c>
       <c r="AG5" s="2">
-        <v>0.004489863</v>
+        <v>0.180132495</v>
       </c>
       <c r="AH5" s="2">
-        <v>1.294854444</v>
-      </c>
-      <c r="AI5" s="1" t="s">
+        <v>0.372050165</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.372050165</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2">
-        <v>67.02585</v>
+        <v>66.756506</v>
       </c>
       <c r="G6" s="2">
-        <v>32.5385</v>
+        <v>33.781242</v>
       </c>
       <c r="H6" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2">
-        <v>58</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>128</v>
+        <v>38</v>
+      </c>
+      <c r="J6" s="3">
+        <v>18</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="O6" s="2">
-        <v>67.100373</v>
+        <v>66.747609</v>
       </c>
       <c r="P6" s="2">
-        <v>32.693133</v>
+        <v>34.025583</v>
       </c>
       <c r="Q6" s="2">
-        <v>10.656923145946</v>
+        <v>10.7696167280566</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="T6" s="2">
-        <v>12800</v>
+        <v>240</v>
       </c>
       <c r="U6" s="2">
-        <v>67.130271</v>
+        <v>66.819538</v>
       </c>
       <c r="V6" s="2">
-        <v>32.418253</v>
+        <v>33.551159</v>
       </c>
       <c r="W6" s="2">
-        <v>12.7254328226789</v>
+        <v>12.2801265853892</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="AA6" s="2">
-        <v>67.07657</v>
+        <v>66.67797</v>
       </c>
       <c r="AB6" s="2">
-        <v>32.33363</v>
+        <v>34.357655</v>
       </c>
       <c r="AC6" s="2">
-        <v>10.521531504242</v>
+        <v>26.7972107652864</v>
       </c>
       <c r="AD6" s="2">
-        <v>5.007510109</v>
+        <v>0.712599036</v>
       </c>
       <c r="AE6" s="2">
-        <v>0.146991378</v>
+        <v>1.47859303</v>
       </c>
       <c r="AF6" s="2">
-        <v>0.020426425</v>
+        <v>21.76490334</v>
       </c>
       <c r="AG6" s="2">
-        <v>0.004489863</v>
+        <v>0.238422666</v>
       </c>
       <c r="AH6" s="2">
-        <v>1.294854444</v>
-      </c>
-      <c r="AI6" s="1" t="s">
+        <v>6.048629518</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>6.048629518</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:36">
       <c r="A7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>39</v>
@@ -9065,40 +9742,40 @@
         <v>92</v>
       </c>
       <c r="F7" s="2">
-        <v>67.00683333</v>
+        <v>67.12602</v>
       </c>
       <c r="G7" s="2">
-        <v>32.58006667</v>
+        <v>32.36038</v>
       </c>
       <c r="H7" s="2">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I7" s="2">
-        <v>118</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>133</v>
+        <v>7</v>
+      </c>
+      <c r="J7" s="3">
+        <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O7" s="2">
-        <v>67.100373</v>
+        <v>67.130271</v>
       </c>
       <c r="P7" s="2">
-        <v>32.693133</v>
+        <v>32.418253</v>
       </c>
       <c r="Q7" s="2">
-        <v>11.4982269814976</v>
+        <v>2.54544609330843</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>40</v>
@@ -9116,260 +9793,275 @@
         <v>32.418253</v>
       </c>
       <c r="W7" s="2">
-        <v>15.4123552613819</v>
+        <v>2.54544609330843</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AA7" s="2">
-        <v>67.07657</v>
+        <v>67.137283</v>
       </c>
       <c r="AB7" s="2">
-        <v>32.33363</v>
+        <v>32.407995</v>
       </c>
       <c r="AC7" s="2">
-        <v>13.2051890725244</v>
+        <v>2.40872332726104</v>
       </c>
       <c r="AD7" s="2">
-        <v>0.102500247</v>
+        <v>3.36309527</v>
       </c>
       <c r="AE7" s="2">
-        <v>6.916565229</v>
+        <v>7.812053816</v>
       </c>
       <c r="AF7" s="2">
-        <v>5.558672383</v>
+        <v>3.540067357</v>
       </c>
       <c r="AG7" s="2">
-        <v>0.464812617</v>
+        <v>2.827020851</v>
       </c>
       <c r="AH7" s="2">
-        <v>3.260637619</v>
-      </c>
-      <c r="AI7" s="1" t="s">
+        <v>4.385559324</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>4.385559324</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:36">
       <c r="A8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2">
-        <v>67.00683333</v>
+        <v>66.664503</v>
       </c>
       <c r="G8" s="2">
-        <v>32.58006667</v>
+        <v>34.298491</v>
       </c>
       <c r="H8" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>129</v>
-      </c>
-      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="3">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O8" s="2">
-        <v>67.100373</v>
+        <v>66.664609</v>
       </c>
       <c r="P8" s="2">
-        <v>32.693133</v>
+        <v>34.297657</v>
       </c>
       <c r="Q8" s="2">
-        <v>11.4982269814976</v>
+        <v>0.0385790232649483</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="T8" s="2">
-        <v>12800</v>
+        <v>6250</v>
       </c>
       <c r="U8" s="2">
-        <v>67.130271</v>
+        <v>66.664609</v>
       </c>
       <c r="V8" s="2">
-        <v>32.418253</v>
+        <v>34.297657</v>
       </c>
       <c r="W8" s="2">
-        <v>15.4123552613819</v>
+        <v>0.0385790232649483</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="AA8" s="2">
-        <v>67.07657</v>
+        <v>66.67797</v>
       </c>
       <c r="AB8" s="2">
-        <v>32.33363</v>
+        <v>34.357655</v>
       </c>
       <c r="AC8" s="2">
-        <v>13.2051890725244</v>
+        <v>3.00492541511874</v>
       </c>
       <c r="AD8" s="2">
-        <v>0.102500247</v>
+        <v>0.437221321</v>
       </c>
       <c r="AE8" s="2">
-        <v>6.916565229</v>
+        <v>0.074576778</v>
       </c>
       <c r="AF8" s="2">
-        <v>5.558672383</v>
+        <v>33.37942995</v>
       </c>
       <c r="AG8" s="2">
-        <v>0.464812617</v>
+        <v>4.635277785</v>
       </c>
       <c r="AH8" s="2">
-        <v>3.260637619</v>
-      </c>
-      <c r="AI8" s="1" t="s">
+        <v>9.631626458</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>9.631626458</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:36">
       <c r="A9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2">
-        <v>67.00683333</v>
+        <v>66.68556</v>
       </c>
       <c r="G9" s="2">
-        <v>32.58006667</v>
+        <v>34.33583</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>74</v>
-      </c>
-      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O9" s="2">
-        <v>67.100373</v>
+        <v>66.664609</v>
       </c>
       <c r="P9" s="2">
-        <v>32.693133</v>
+        <v>34.297657</v>
       </c>
       <c r="Q9" s="2">
-        <v>11.4982269814976</v>
+        <v>2.87259676782328</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="T9" s="2">
-        <v>12800</v>
+        <v>6250</v>
       </c>
       <c r="U9" s="2">
-        <v>67.130271</v>
+        <v>66.664609</v>
       </c>
       <c r="V9" s="2">
-        <v>32.418253</v>
+        <v>34.297657</v>
       </c>
       <c r="W9" s="2">
-        <v>15.4123552613819</v>
+        <v>2.87259676782328</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="AA9" s="2">
-        <v>67.07657</v>
+        <v>66.67797</v>
       </c>
       <c r="AB9" s="2">
-        <v>32.33363</v>
+        <v>34.357655</v>
       </c>
       <c r="AC9" s="2">
-        <v>13.2051890725244</v>
+        <v>1.27870867547567</v>
       </c>
       <c r="AD9" s="2">
-        <v>0.102500247</v>
+        <v>0.299430539</v>
       </c>
       <c r="AE9" s="2">
-        <v>6.916565229</v>
+        <v>0.052053194</v>
       </c>
       <c r="AF9" s="2">
-        <v>5.558672383</v>
+        <v>0.551108854</v>
       </c>
       <c r="AG9" s="2">
-        <v>0.464812617</v>
+        <v>0.19283451</v>
       </c>
       <c r="AH9" s="2">
-        <v>3.260637619</v>
-      </c>
-      <c r="AI9" s="1" t="s">
+        <v>0.273856774</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>0.273856774</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:36">
       <c r="A10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>60</v>
       </c>
@@ -9380,28 +10072,28 @@
         <v>40</v>
       </c>
       <c r="F10" s="2">
-        <v>66.671221</v>
+        <v>66.683231</v>
       </c>
       <c r="G10" s="2">
-        <v>34.32914</v>
+        <v>34.333758</v>
       </c>
       <c r="H10" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>63</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
+      </c>
+      <c r="J10" s="3">
+        <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>61</v>
@@ -9413,13 +10105,13 @@
         <v>34.297657</v>
       </c>
       <c r="Q10" s="2">
-        <v>1.56937852440207</v>
+        <v>2.61039817648096</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="T10" s="2">
         <v>6250</v>
@@ -9431,16 +10123,16 @@
         <v>34.297657</v>
       </c>
       <c r="W10" s="2">
-        <v>1.56937852440207</v>
+        <v>2.61039817648096</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AA10" s="2">
         <v>66.67797</v>
@@ -9449,33 +10141,36 @@
         <v>34.357655</v>
       </c>
       <c r="AC10" s="2">
-        <v>1.46265269118773</v>
+        <v>1.20360784566723</v>
       </c>
       <c r="AD10" s="2">
-        <v>0.556560112</v>
+        <v>0.387896492</v>
       </c>
       <c r="AE10" s="2">
-        <v>0.038479477</v>
+        <v>0.347263832</v>
       </c>
       <c r="AF10" s="2">
-        <v>0.419161049</v>
+        <v>3.330089069</v>
       </c>
       <c r="AG10" s="2">
-        <v>0.298976198</v>
+        <v>0.05228788</v>
       </c>
       <c r="AH10" s="2">
-        <v>0.328294209</v>
-      </c>
-      <c r="AI10" s="1" t="s">
+        <v>1.029384318</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>1.029384318</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>60</v>
@@ -9487,94 +10182,94 @@
         <v>40</v>
       </c>
       <c r="F11" s="2">
-        <v>67.156537</v>
+        <v>66.696303</v>
       </c>
       <c r="G11" s="2">
-        <v>32.369881</v>
+        <v>34.35227</v>
       </c>
       <c r="H11" s="2">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="I11" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J11" s="3">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>61</v>
       </c>
       <c r="O11" s="2">
-        <v>67.156763</v>
+        <v>66.664609</v>
       </c>
       <c r="P11" s="2">
-        <v>32.37713</v>
+        <v>34.297657</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.313927302861054</v>
+        <v>4.26602067311126</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>60</v>
+        <v>133</v>
+      </c>
+      <c r="T11" s="2">
+        <v>6250</v>
       </c>
       <c r="U11" s="2">
-        <v>67.156763</v>
+        <v>66.664609</v>
       </c>
       <c r="V11" s="2">
-        <v>32.37713</v>
+        <v>34.297657</v>
       </c>
       <c r="W11" s="2">
-        <v>0.313927302861054</v>
+        <v>4.26602067311126</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="AA11" s="2">
-        <v>67.137283</v>
+        <v>66.67797</v>
       </c>
       <c r="AB11" s="2">
-        <v>32.407995</v>
+        <v>34.357655</v>
       </c>
       <c r="AC11" s="2">
-        <v>2.70051510029029</v>
+        <v>2.05226368474793</v>
       </c>
       <c r="AD11" s="2">
-        <v>0.062850151</v>
+        <v>0.732454519</v>
       </c>
       <c r="AE11" s="2">
-        <v>0.575132943</v>
+        <v>0.325535113</v>
       </c>
       <c r="AF11" s="2">
-        <v>7.028693041</v>
+        <v>0.706900808</v>
       </c>
       <c r="AG11" s="2">
-        <v>1.484717637</v>
+        <v>0.253116727</v>
       </c>
       <c r="AH11" s="2">
-        <v>2.287848443</v>
+        <v>0.504501792</v>
       </c>
       <c r="AI11" s="2">
-        <v>2.287848443</v>
+        <v>0.504501792</v>
       </c>
       <c r="AJ11" s="1" t="s">
         <v>47</v>
@@ -9582,10 +10277,10 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>60</v>
@@ -9594,108 +10289,108 @@
         <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2">
-        <v>67.09485</v>
+        <v>66.655254</v>
       </c>
       <c r="G12" s="2">
-        <v>32.34515</v>
+        <v>34.33972</v>
       </c>
       <c r="H12" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J12" s="3">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>61</v>
       </c>
       <c r="O12" s="2">
-        <v>67.130271</v>
+        <v>66.664609</v>
       </c>
       <c r="P12" s="2">
-        <v>32.418253</v>
+        <v>34.297657</v>
       </c>
       <c r="Q12" s="2">
-        <v>5.05048922328658</v>
+        <v>2.12505404938796</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="T12" s="2">
-        <v>12800</v>
+        <v>6250</v>
       </c>
       <c r="U12" s="2">
-        <v>67.130271</v>
+        <v>66.664609</v>
       </c>
       <c r="V12" s="2">
-        <v>32.418253</v>
+        <v>34.297657</v>
       </c>
       <c r="W12" s="2">
-        <v>5.05048922328658</v>
+        <v>2.12505404938796</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="AA12" s="2">
-        <v>67.07657</v>
+        <v>66.67797</v>
       </c>
       <c r="AB12" s="2">
-        <v>32.33363</v>
+        <v>34.357655</v>
       </c>
       <c r="AC12" s="2">
-        <v>2.09293784384179</v>
+        <v>2.64653102972086</v>
       </c>
       <c r="AD12" s="2">
-        <v>0.182730924</v>
+        <v>0.038149233</v>
       </c>
       <c r="AE12" s="2">
-        <v>0.777022405</v>
+        <v>1.744593229</v>
       </c>
       <c r="AF12" s="2">
-        <v>4.921400671</v>
+        <v>22.43924378</v>
       </c>
       <c r="AG12" s="2">
-        <v>13.01161237</v>
+        <v>6.888189299</v>
       </c>
       <c r="AH12" s="2">
-        <v>4.723191593</v>
+        <v>7.777543886</v>
       </c>
       <c r="AI12" s="2">
-        <v>4.723191593</v>
+        <v>7.777543886</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>60</v>
@@ -9707,16 +10402,16 @@
         <v>40</v>
       </c>
       <c r="F13" s="2">
-        <v>66.701026</v>
+        <v>66.677426</v>
       </c>
       <c r="G13" s="2">
-        <v>34.238944</v>
+        <v>34.369542</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J13" s="3">
         <v>24</v>
@@ -9725,10 +10420,10 @@
         <v>40</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>61</v>
@@ -9740,13 +10435,13 @@
         <v>34.297657</v>
       </c>
       <c r="Q13" s="2">
-        <v>4.80368183749213</v>
+        <v>3.47144750584811</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="T13" s="2">
         <v>6250</v>
@@ -9758,16 +10453,16 @@
         <v>34.297657</v>
       </c>
       <c r="W13" s="2">
-        <v>4.80368183749213</v>
+        <v>3.47144750584811</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AA13" s="2">
         <v>66.67797</v>
@@ -9776,907 +10471,27 @@
         <v>34.357655</v>
       </c>
       <c r="AC13" s="2">
-        <v>5.81867616932993</v>
+        <v>0.526778859743875</v>
       </c>
       <c r="AD13" s="2">
-        <v>0.381958961</v>
+        <v>0.326246621</v>
       </c>
       <c r="AE13" s="2">
-        <v>0.189717446</v>
+        <v>0.072827734</v>
       </c>
       <c r="AF13" s="2">
-        <v>0.736391757</v>
+        <v>0.541041014</v>
       </c>
       <c r="AG13" s="2">
-        <v>0.180132495</v>
+        <v>0.68979395</v>
       </c>
       <c r="AH13" s="2">
-        <v>0.372050165</v>
+        <v>0.40747733</v>
       </c>
       <c r="AI13" s="2">
-        <v>0.372050165</v>
+        <v>0.40747733</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36">
-      <c r="A14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="2">
-        <v>66.756506</v>
-      </c>
-      <c r="G14" s="2">
-        <v>33.781242</v>
-      </c>
-      <c r="H14" s="2">
-        <v>4</v>
-      </c>
-      <c r="I14" s="2">
-        <v>38</v>
-      </c>
-      <c r="J14" s="3">
-        <v>18</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="2">
-        <v>66.747609</v>
-      </c>
-      <c r="P14" s="2">
-        <v>34.025583</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>10.7696167280566</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="T14" s="2">
-        <v>240</v>
-      </c>
-      <c r="U14" s="2">
-        <v>66.819538</v>
-      </c>
-      <c r="V14" s="2">
-        <v>33.551159</v>
-      </c>
-      <c r="W14" s="2">
-        <v>12.2801265853892</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>66.67797</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>34.357655</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>26.7972107652864</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0.712599036</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>1.47859303</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>21.76490334</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>0.238422666</v>
-      </c>
-      <c r="AH14" s="2">
-        <v>6.048629518</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>6.048629518</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36">
-      <c r="A15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="2">
-        <v>67.12602</v>
-      </c>
-      <c r="G15" s="2">
-        <v>32.36038</v>
-      </c>
-      <c r="H15" s="2">
-        <v>32</v>
-      </c>
-      <c r="I15" s="2">
-        <v>7</v>
-      </c>
-      <c r="J15" s="3">
-        <v>8</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" s="2">
-        <v>67.130271</v>
-      </c>
-      <c r="P15" s="2">
-        <v>32.418253</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>2.54544609330843</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T15" s="2">
-        <v>12800</v>
-      </c>
-      <c r="U15" s="2">
-        <v>67.130271</v>
-      </c>
-      <c r="V15" s="2">
-        <v>32.418253</v>
-      </c>
-      <c r="W15" s="2">
-        <v>2.54544609330843</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>67.137283</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>32.407995</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>2.40872332726104</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>3.36309527</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>7.812053816</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>3.540067357</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>2.827020851</v>
-      </c>
-      <c r="AH15" s="2">
-        <v>4.385559324</v>
-      </c>
-      <c r="AI15" s="2">
-        <v>4.385559324</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36">
-      <c r="A16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="2">
-        <v>66.664503</v>
-      </c>
-      <c r="G16" s="2">
-        <v>34.298491</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>29</v>
-      </c>
-      <c r="J16" s="3">
-        <v>24</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O16" s="2">
-        <v>66.664609</v>
-      </c>
-      <c r="P16" s="2">
-        <v>34.297657</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0.0385790232649483</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="T16" s="2">
-        <v>6250</v>
-      </c>
-      <c r="U16" s="2">
-        <v>66.664609</v>
-      </c>
-      <c r="V16" s="2">
-        <v>34.297657</v>
-      </c>
-      <c r="W16" s="2">
-        <v>0.0385790232649483</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>66.67797</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>34.357655</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>3.00492541511874</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0.437221321</v>
-      </c>
-      <c r="AE16" s="2">
-        <v>0.074576778</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>33.37942995</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>4.635277785</v>
-      </c>
-      <c r="AH16" s="2">
-        <v>9.631626458</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>9.631626458</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36">
-      <c r="A17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="2">
-        <v>66.68556</v>
-      </c>
-      <c r="G17" s="2">
-        <v>34.33583</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>20</v>
-      </c>
-      <c r="J17" s="3">
-        <v>24</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" s="2">
-        <v>66.664609</v>
-      </c>
-      <c r="P17" s="2">
-        <v>34.297657</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>2.87259676782328</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="T17" s="2">
-        <v>6250</v>
-      </c>
-      <c r="U17" s="2">
-        <v>66.664609</v>
-      </c>
-      <c r="V17" s="2">
-        <v>34.297657</v>
-      </c>
-      <c r="W17" s="2">
-        <v>2.87259676782328</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>66.67797</v>
-      </c>
-      <c r="AB17" s="2">
-        <v>34.357655</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>1.27870867547567</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0.299430539</v>
-      </c>
-      <c r="AE17" s="2">
-        <v>0.052053194</v>
-      </c>
-      <c r="AF17" s="2">
-        <v>0.551108854</v>
-      </c>
-      <c r="AG17" s="2">
-        <v>0.19283451</v>
-      </c>
-      <c r="AH17" s="2">
-        <v>0.273856774</v>
-      </c>
-      <c r="AI17" s="2">
-        <v>0.273856774</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36">
-      <c r="A18" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="2">
-        <v>66.683231</v>
-      </c>
-      <c r="G18" s="2">
-        <v>34.333758</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>43</v>
-      </c>
-      <c r="J18" s="3">
-        <v>24</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O18" s="2">
-        <v>66.664609</v>
-      </c>
-      <c r="P18" s="2">
-        <v>34.297657</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>2.61039817648096</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="T18" s="2">
-        <v>6250</v>
-      </c>
-      <c r="U18" s="2">
-        <v>66.664609</v>
-      </c>
-      <c r="V18" s="2">
-        <v>34.297657</v>
-      </c>
-      <c r="W18" s="2">
-        <v>2.61039817648096</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>66.67797</v>
-      </c>
-      <c r="AB18" s="2">
-        <v>34.357655</v>
-      </c>
-      <c r="AC18" s="2">
-        <v>1.20360784566723</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>0.387896492</v>
-      </c>
-      <c r="AE18" s="2">
-        <v>0.347263832</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>3.330089069</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>0.05228788</v>
-      </c>
-      <c r="AH18" s="2">
-        <v>1.029384318</v>
-      </c>
-      <c r="AI18" s="2">
-        <v>1.029384318</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36">
-      <c r="A19" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="2">
-        <v>66.696303</v>
-      </c>
-      <c r="G19" s="2">
-        <v>34.35227</v>
-      </c>
-      <c r="H19" s="2">
-        <v>7</v>
-      </c>
-      <c r="I19" s="2">
-        <v>23</v>
-      </c>
-      <c r="J19" s="3">
-        <v>24</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O19" s="2">
-        <v>66.664609</v>
-      </c>
-      <c r="P19" s="2">
-        <v>34.297657</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>4.26602067311126</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="T19" s="2">
-        <v>6250</v>
-      </c>
-      <c r="U19" s="2">
-        <v>66.664609</v>
-      </c>
-      <c r="V19" s="2">
-        <v>34.297657</v>
-      </c>
-      <c r="W19" s="2">
-        <v>4.26602067311126</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>66.67797</v>
-      </c>
-      <c r="AB19" s="2">
-        <v>34.357655</v>
-      </c>
-      <c r="AC19" s="2">
-        <v>2.05226368474793</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>0.732454519</v>
-      </c>
-      <c r="AE19" s="2">
-        <v>0.325535113</v>
-      </c>
-      <c r="AF19" s="2">
-        <v>0.706900808</v>
-      </c>
-      <c r="AG19" s="2">
-        <v>0.253116727</v>
-      </c>
-      <c r="AH19" s="2">
-        <v>0.504501792</v>
-      </c>
-      <c r="AI19" s="2">
-        <v>0.504501792</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36">
-      <c r="A20" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="2">
-        <v>66.655254</v>
-      </c>
-      <c r="G20" s="2">
-        <v>34.33972</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>40</v>
-      </c>
-      <c r="J20" s="3">
-        <v>24</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O20" s="2">
-        <v>66.664609</v>
-      </c>
-      <c r="P20" s="2">
-        <v>34.297657</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>2.12505404938796</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="T20" s="2">
-        <v>6250</v>
-      </c>
-      <c r="U20" s="2">
-        <v>66.664609</v>
-      </c>
-      <c r="V20" s="2">
-        <v>34.297657</v>
-      </c>
-      <c r="W20" s="2">
-        <v>2.12505404938796</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>66.67797</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>34.357655</v>
-      </c>
-      <c r="AC20" s="2">
-        <v>2.64653102972086</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0.038149233</v>
-      </c>
-      <c r="AE20" s="2">
-        <v>1.744593229</v>
-      </c>
-      <c r="AF20" s="2">
-        <v>22.43924378</v>
-      </c>
-      <c r="AG20" s="2">
-        <v>6.888189299</v>
-      </c>
-      <c r="AH20" s="2">
-        <v>7.777543886</v>
-      </c>
-      <c r="AI20" s="2">
-        <v>7.777543886</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36">
-      <c r="A21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="2">
-        <v>66.677426</v>
-      </c>
-      <c r="G21" s="2">
-        <v>34.369542</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>37</v>
-      </c>
-      <c r="J21" s="3">
-        <v>24</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O21" s="2">
-        <v>66.664609</v>
-      </c>
-      <c r="P21" s="2">
-        <v>34.297657</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>3.47144750584811</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="T21" s="2">
-        <v>6250</v>
-      </c>
-      <c r="U21" s="2">
-        <v>66.664609</v>
-      </c>
-      <c r="V21" s="2">
-        <v>34.297657</v>
-      </c>
-      <c r="W21" s="2">
-        <v>3.47144750584811</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>66.67797</v>
-      </c>
-      <c r="AB21" s="2">
-        <v>34.357655</v>
-      </c>
-      <c r="AC21" s="2">
-        <v>0.526778859743875</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0.326246621</v>
-      </c>
-      <c r="AE21" s="2">
-        <v>0.072827734</v>
-      </c>
-      <c r="AF21" s="2">
-        <v>0.541041014</v>
-      </c>
-      <c r="AG21" s="2">
-        <v>0.68979395</v>
-      </c>
-      <c r="AH21" s="2">
-        <v>0.40747733</v>
-      </c>
-      <c r="AI21" s="2">
-        <v>0.40747733</v>
-      </c>
-      <c r="AJ21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
